--- a/Python code - Structural Macroeconometrics- Final Project/Data/Working Data_EUROSTAT.xlsx
+++ b/Python code - Structural Macroeconometrics- Final Project/Data/Working Data_EUROSTAT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Github\Coding-Sample\Python code - Structural Macroeconometrics- Final Project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C58AA28-FD14-44C2-A148-8617327DE2DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F58A226-EF37-44B1-83CE-44AA5A151A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1683" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="342">
   <si>
     <t/>
   </si>
@@ -1056,9 +1056,6 @@
   </si>
   <si>
     <t>Date</t>
-  </si>
-  <si>
-    <t>ALL_HICP</t>
   </si>
   <si>
     <t>HICP_FE</t>
@@ -1075,7 +1072,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.##########"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1097,6 +1094,12 @@
     <font>
       <sz val="9"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1277,18 +1280,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D39DB9AE-8E0F-4BA2-BD28-A6C95BD05542}" name="Table1" displayName="Table1" ref="A1:D673" totalsRowShown="0" tableBorderDxfId="2">
-  <autoFilter ref="A1:D673" xr:uid="{D39DB9AE-8E0F-4BA2-BD28-A6C95BD05542}">
-    <filterColumn colId="2">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D39DB9AE-8E0F-4BA2-BD28-A6C95BD05542}" name="Table1" displayName="Table1" ref="A1:C673" totalsRowShown="0" tableBorderDxfId="2">
+  <autoFilter ref="A1:C673" xr:uid="{D39DB9AE-8E0F-4BA2-BD28-A6C95BD05542}"/>
+  <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{FE858EC5-941B-45F8-8255-BA061095413B}" name="Date" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{FEFF455B-A473-4B2B-B3D6-31A115D51F1A}" name="Euro_Short_Rate" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{F87097F0-A267-439D-8B11-D8A9D09C3814}" name="ALL_HICP"/>
     <tableColumn id="4" xr3:uid="{E3D696E1-530C-4E49-8513-69E3EB9744ED}" name="HICP_FE"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1558,48 +1554,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D673"/>
+  <dimension ref="A1:C673"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:G1048576"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>339</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C1" t="s">
         <v>340</v>
       </c>
-      <c r="D1" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="3">
         <v>5.81</v>
       </c>
-      <c r="C2" s="4">
-        <v>67.5</v>
-      </c>
-      <c r="D2" s="6">
+      <c r="C2" s="6">
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
@@ -1609,11 +1598,8 @@
       <c r="C3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>4</v>
       </c>
@@ -1621,13 +1607,10 @@
         <v>5.58</v>
       </c>
       <c r="C4" s="4">
-        <v>67.8</v>
-      </c>
-      <c r="D4" s="4">
         <v>63.1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>0</v>
       </c>
@@ -1637,25 +1620,19 @@
       <c r="C5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="3">
         <v>5.5</v>
       </c>
-      <c r="C6" s="6">
-        <v>68</v>
-      </c>
-      <c r="D6" s="4">
+      <c r="C6" s="4">
         <v>63.4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>0</v>
       </c>
@@ -1665,11 +1642,8 @@
       <c r="C7" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
@@ -1677,13 +1651,10 @@
         <v>5.27</v>
       </c>
       <c r="C8" s="4">
-        <v>68.3</v>
-      </c>
-      <c r="D8" s="4">
         <v>64.099999999999994</v>
       </c>
     </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>0</v>
       </c>
@@ -1693,11 +1664,8 @@
       <c r="C9" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>7</v>
       </c>
@@ -1705,13 +1673,10 @@
         <v>5.0599999999999996</v>
       </c>
       <c r="C10" s="4">
-        <v>68.5</v>
-      </c>
-      <c r="D10" s="4">
         <v>64.400000000000006</v>
       </c>
     </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>0</v>
       </c>
@@ -1721,11 +1686,8 @@
       <c r="C11" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>8</v>
       </c>
@@ -1733,13 +1695,10 @@
         <v>5.08</v>
       </c>
       <c r="C12" s="4">
-        <v>68.7</v>
-      </c>
-      <c r="D12" s="4">
         <v>64.5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>0</v>
       </c>
@@ -1749,11 +1708,8 @@
       <c r="C13" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>9</v>
       </c>
@@ -1761,13 +1717,10 @@
         <v>5.0599999999999996</v>
       </c>
       <c r="C14" s="4">
-        <v>68.599999999999994</v>
-      </c>
-      <c r="D14" s="4">
         <v>63.6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>0</v>
       </c>
@@ -1777,11 +1730,8 @@
       <c r="C15" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>10</v>
       </c>
@@ -1789,13 +1739,10 @@
         <v>5.08</v>
       </c>
       <c r="C16" s="4">
-        <v>68.7</v>
-      </c>
-      <c r="D16" s="4">
         <v>63.4</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>0</v>
       </c>
@@ -1805,11 +1752,8 @@
       <c r="C17" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>11</v>
       </c>
@@ -1817,13 +1761,10 @@
         <v>4.8600000000000003</v>
       </c>
       <c r="C18" s="4">
-        <v>68.7</v>
-      </c>
-      <c r="D18" s="4">
         <v>63.4</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>0</v>
       </c>
@@ -1833,11 +1774,8 @@
       <c r="C19" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>12</v>
       </c>
@@ -1845,13 +1783,10 @@
         <v>4.6900000000000004</v>
       </c>
       <c r="C20" s="4">
-        <v>68.8</v>
-      </c>
-      <c r="D20" s="4">
         <v>63.4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>0</v>
       </c>
@@ -1861,11 +1796,8 @@
       <c r="C21" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>13</v>
       </c>
@@ -1873,13 +1805,10 @@
         <v>4.57</v>
       </c>
       <c r="C22" s="4">
-        <v>69.099999999999994</v>
-      </c>
-      <c r="D22" s="4">
         <v>63.8</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>0</v>
       </c>
@@ -1889,11 +1818,8 @@
       <c r="C23" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>14</v>
       </c>
@@ -1901,13 +1827,10 @@
         <v>4.5</v>
       </c>
       <c r="C24" s="4">
-        <v>69.2</v>
-      </c>
-      <c r="D24" s="4">
         <v>63.8</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>0</v>
       </c>
@@ -1917,11 +1840,8 @@
       <c r="C25" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>15</v>
       </c>
@@ -1929,13 +1849,10 @@
         <v>4.3899999999999997</v>
       </c>
       <c r="C26" s="4">
-        <v>69.3</v>
-      </c>
-      <c r="D26" s="4">
         <v>64.099999999999994</v>
       </c>
     </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>0</v>
       </c>
@@ -1945,11 +1862,8 @@
       <c r="C27" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D27" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
         <v>16</v>
       </c>
@@ -1957,13 +1871,10 @@
         <v>4.43</v>
       </c>
       <c r="C28" s="4">
-        <v>69.400000000000006</v>
-      </c>
-      <c r="D28" s="4">
         <v>63.9</v>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
         <v>0</v>
       </c>
@@ -1973,25 +1884,19 @@
       <c r="C29" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D29" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B30" s="3">
         <v>4.5</v>
       </c>
-      <c r="C30" s="4">
-        <v>69.5</v>
-      </c>
-      <c r="D30" s="6">
+      <c r="C30" s="6">
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
         <v>0</v>
       </c>
@@ -2001,25 +1906,19 @@
       <c r="C31" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B32" s="3">
         <v>4.3899999999999997</v>
       </c>
-      <c r="C32" s="4">
-        <v>69.599999999999994</v>
-      </c>
-      <c r="D32" s="6">
+      <c r="C32" s="6">
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>0</v>
       </c>
@@ -2029,25 +1928,19 @@
       <c r="C33" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D33" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B34" s="3">
         <v>4.3</v>
       </c>
-      <c r="C34" s="4">
-        <v>69.8</v>
-      </c>
-      <c r="D34" s="6">
+      <c r="C34" s="6">
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
         <v>0</v>
       </c>
@@ -2057,11 +1950,8 @@
       <c r="C35" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D35" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
         <v>20</v>
       </c>
@@ -2069,13 +1959,10 @@
         <v>4.29</v>
       </c>
       <c r="C36" s="4">
-        <v>69.8</v>
-      </c>
-      <c r="D36" s="4">
         <v>63.9</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
         <v>0</v>
       </c>
@@ -2085,11 +1972,8 @@
       <c r="C37" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D37" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
         <v>21</v>
       </c>
@@ -2097,13 +1981,10 @@
         <v>4.3</v>
       </c>
       <c r="C38" s="4">
-        <v>69.8</v>
-      </c>
-      <c r="D38" s="4">
         <v>63.6</v>
       </c>
     </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
         <v>0</v>
       </c>
@@ -2113,11 +1994,8 @@
       <c r="C39" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D39" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
         <v>22</v>
       </c>
@@ -2125,13 +2003,10 @@
         <v>4.3600000000000003</v>
       </c>
       <c r="C40" s="4">
-        <v>69.8</v>
-      </c>
-      <c r="D40" s="4">
         <v>63.5</v>
       </c>
     </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
         <v>0</v>
       </c>
@@ -2141,11 +2016,8 @@
       <c r="C41" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D41" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
         <v>23</v>
       </c>
@@ -2153,13 +2025,10 @@
         <v>4.3099999999999996</v>
       </c>
       <c r="C42" s="4">
-        <v>69.8</v>
-      </c>
-      <c r="D42" s="4">
         <v>63.5</v>
       </c>
     </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
         <v>0</v>
       </c>
@@ -2169,11 +2038,8 @@
       <c r="C43" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D43" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
         <v>24</v>
       </c>
@@ -2181,13 +2047,10 @@
         <v>4.4400000000000004</v>
       </c>
       <c r="C44" s="4">
-        <v>70.099999999999994</v>
-      </c>
-      <c r="D44" s="4">
         <v>63.7</v>
       </c>
     </row>
-    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
         <v>0</v>
       </c>
@@ -2197,25 +2060,19 @@
       <c r="C45" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D45" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B46" s="3">
         <v>4.49</v>
       </c>
-      <c r="C46" s="4">
-        <v>70.3</v>
-      </c>
-      <c r="D46" s="6">
+      <c r="C46" s="6">
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
         <v>0</v>
       </c>
@@ -2225,11 +2082,8 @@
       <c r="C47" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D47" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
         <v>26</v>
       </c>
@@ -2237,13 +2091,10 @@
         <v>4.37</v>
       </c>
       <c r="C48" s="4">
-        <v>70.400000000000006</v>
-      </c>
-      <c r="D48" s="4">
         <v>64.099999999999994</v>
       </c>
     </row>
-    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
         <v>0</v>
       </c>
@@ -2253,11 +2104,8 @@
       <c r="C49" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D49" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
         <v>27</v>
       </c>
@@ -2265,13 +2113,10 @@
         <v>4.26</v>
       </c>
       <c r="C50" s="4">
-        <v>70.599999999999994</v>
-      </c>
-      <c r="D50" s="4">
         <v>64.400000000000006</v>
       </c>
     </row>
-    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="8" t="s">
         <v>0</v>
       </c>
@@ -2281,11 +2126,8 @@
       <c r="C51" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D51" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
         <v>28</v>
       </c>
@@ -2293,13 +2135,10 @@
         <v>4.24</v>
       </c>
       <c r="C52" s="4">
-        <v>70.8</v>
-      </c>
-      <c r="D52" s="4">
         <v>64.3</v>
       </c>
     </row>
-    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
         <v>0</v>
       </c>
@@ -2309,11 +2148,8 @@
       <c r="C53" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D53" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
         <v>29</v>
       </c>
@@ -2321,13 +2157,10 @@
         <v>4.1100000000000003</v>
       </c>
       <c r="C54" s="4">
-        <v>70.900000000000006</v>
-      </c>
-      <c r="D54" s="4">
         <v>64.2</v>
       </c>
     </row>
-    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="8" t="s">
         <v>0</v>
       </c>
@@ -2337,11 +2170,8 @@
       <c r="C55" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D55" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="8" t="s">
         <v>30</v>
       </c>
@@ -2349,13 +2179,10 @@
         <v>4.09</v>
       </c>
       <c r="C56" s="4">
-        <v>71.099999999999994</v>
-      </c>
-      <c r="D56" s="4">
         <v>64.3</v>
       </c>
     </row>
-    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="8" t="s">
         <v>0</v>
       </c>
@@ -2365,11 +2192,8 @@
       <c r="C57" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D57" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="8" t="s">
         <v>31</v>
       </c>
@@ -2377,13 +2201,10 @@
         <v>4.0599999999999996</v>
       </c>
       <c r="C58" s="4">
-        <v>71.099999999999994</v>
-      </c>
-      <c r="D58" s="4">
         <v>64.3</v>
       </c>
     </row>
-    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="8" t="s">
         <v>0</v>
       </c>
@@ -2393,11 +2214,8 @@
       <c r="C59" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D59" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="8" t="s">
         <v>32</v>
       </c>
@@ -2405,13 +2223,10 @@
         <v>4.0199999999999996</v>
       </c>
       <c r="C60" s="4">
-        <v>71.2</v>
-      </c>
-      <c r="D60" s="4">
         <v>64.3</v>
       </c>
     </row>
-    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="8" t="s">
         <v>0</v>
       </c>
@@ -2421,11 +2236,8 @@
       <c r="C61" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D61" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="8" t="s">
         <v>33</v>
       </c>
@@ -2433,13 +2245,10 @@
         <v>3.95</v>
       </c>
       <c r="C62" s="4">
-        <v>71.2</v>
-      </c>
-      <c r="D62" s="4">
         <v>64.099999999999994</v>
       </c>
     </row>
-    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="8" t="s">
         <v>0</v>
       </c>
@@ -2449,11 +2258,8 @@
       <c r="C63" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D63" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="8" t="s">
         <v>34</v>
       </c>
@@ -2461,13 +2267,10 @@
         <v>3.93</v>
       </c>
       <c r="C64" s="4">
-        <v>71.3</v>
-      </c>
-      <c r="D64" s="4">
         <v>63.9</v>
       </c>
     </row>
-    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="8" t="s">
         <v>0</v>
       </c>
@@ -2477,11 +2280,8 @@
       <c r="C65" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D65" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="8" t="s">
         <v>35</v>
       </c>
@@ -2489,13 +2289,10 @@
         <v>3.93</v>
       </c>
       <c r="C66" s="4">
-        <v>71.3</v>
-      </c>
-      <c r="D66" s="4">
         <v>63.8</v>
       </c>
     </row>
-    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="8" t="s">
         <v>0</v>
       </c>
@@ -2505,25 +2302,19 @@
       <c r="C67" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D67" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="8" t="s">
         <v>36</v>
       </c>
       <c r="B68" s="3">
         <v>3.81</v>
       </c>
-      <c r="C68" s="4">
-        <v>71.400000000000006</v>
-      </c>
-      <c r="D68" s="6">
+      <c r="C68" s="6">
         <v>64</v>
       </c>
     </row>
-    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="8" t="s">
         <v>0</v>
       </c>
@@ -2533,11 +2324,8 @@
       <c r="C69" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D69" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="8" t="s">
         <v>37</v>
       </c>
@@ -2545,13 +2333,10 @@
         <v>3.69</v>
       </c>
       <c r="C70" s="4">
-        <v>71.5</v>
-      </c>
-      <c r="D70" s="4">
         <v>63.9</v>
       </c>
     </row>
-    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="8" t="s">
         <v>0</v>
       </c>
@@ -2561,25 +2346,19 @@
       <c r="C71" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D71" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="8" t="s">
         <v>38</v>
       </c>
       <c r="B72" s="3">
         <v>3.37</v>
       </c>
-      <c r="C72" s="4">
-        <v>71.5</v>
-      </c>
-      <c r="D72" s="6">
+      <c r="C72" s="6">
         <v>64</v>
       </c>
     </row>
-    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="8" t="s">
         <v>0</v>
       </c>
@@ -2589,11 +2368,8 @@
       <c r="C73" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D73" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="8" t="s">
         <v>39</v>
       </c>
@@ -2601,13 +2377,10 @@
         <v>3.1320999999999999</v>
       </c>
       <c r="C74" s="4">
-        <v>71.599999999999994</v>
-      </c>
-      <c r="D74" s="4">
         <v>63.9</v>
       </c>
     </row>
-    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="8" t="s">
         <v>0</v>
       </c>
@@ -2617,11 +2390,8 @@
       <c r="C75" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D75" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="8" t="s">
         <v>40</v>
       </c>
@@ -2629,13 +2399,10 @@
         <v>3.0933999999999999</v>
       </c>
       <c r="C76" s="4">
-        <v>71.8</v>
-      </c>
-      <c r="D76" s="4">
         <v>64.099999999999994</v>
       </c>
     </row>
-    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="8" t="s">
         <v>0</v>
       </c>
@@ -2645,11 +2412,8 @@
       <c r="C77" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D77" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="8" t="s">
         <v>41</v>
       </c>
@@ -2657,13 +2421,10 @@
         <v>3.0467</v>
       </c>
       <c r="C78" s="4">
-        <v>71.900000000000006</v>
-      </c>
-      <c r="D78" s="4">
         <v>64.3</v>
       </c>
     </row>
-    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="8" t="s">
         <v>0</v>
       </c>
@@ -2673,25 +2434,19 @@
       <c r="C79" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D79" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="8" t="s">
         <v>42</v>
       </c>
       <c r="B80" s="3">
         <v>2.6964999999999999</v>
       </c>
-      <c r="C80" s="6">
-        <v>72</v>
-      </c>
-      <c r="D80" s="4">
+      <c r="C80" s="4">
         <v>64.8</v>
       </c>
     </row>
-    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="8" t="s">
         <v>0</v>
       </c>
@@ -2701,25 +2456,19 @@
       <c r="C81" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D81" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="8" t="s">
         <v>43</v>
       </c>
       <c r="B82" s="3">
         <v>2.5790000000000002</v>
       </c>
-      <c r="C82" s="4">
-        <v>72.2</v>
-      </c>
-      <c r="D82" s="6">
+      <c r="C82" s="6">
         <v>65</v>
       </c>
     </row>
-    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="8" t="s">
         <v>0</v>
       </c>
@@ -2729,11 +2478,8 @@
       <c r="C83" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D83" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="8" t="s">
         <v>44</v>
       </c>
@@ -2741,13 +2487,10 @@
         <v>2.6267</v>
       </c>
       <c r="C84" s="4">
-        <v>72.2</v>
-      </c>
-      <c r="D84" s="4">
         <v>64.8</v>
       </c>
     </row>
-    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="8" t="s">
         <v>0</v>
       </c>
@@ -2757,11 +2500,8 @@
       <c r="C85" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D85" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="8" t="s">
         <v>45</v>
       </c>
@@ -2769,13 +2509,10 @@
         <v>2.6764999999999999</v>
       </c>
       <c r="C86" s="4">
-        <v>72.400000000000006</v>
-      </c>
-      <c r="D86" s="4">
         <v>64.8</v>
       </c>
     </row>
-    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="8" t="s">
         <v>0</v>
       </c>
@@ -2785,11 +2522,8 @@
       <c r="C87" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D87" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="8" t="s">
         <v>46</v>
       </c>
@@ -2797,13 +2531,10 @@
         <v>2.6949999999999998</v>
       </c>
       <c r="C88" s="4">
-        <v>72.400000000000006</v>
-      </c>
-      <c r="D88" s="4">
         <v>64.8</v>
       </c>
     </row>
-    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="8" t="s">
         <v>0</v>
       </c>
@@ -2813,11 +2544,8 @@
       <c r="C89" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D89" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="8" t="s">
         <v>47</v>
       </c>
@@ -2825,13 +2553,10 @@
         <v>2.7267000000000001</v>
       </c>
       <c r="C90" s="4">
-        <v>72.599999999999994</v>
-      </c>
-      <c r="D90" s="4">
         <v>65.3</v>
       </c>
     </row>
-    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="8" t="s">
         <v>0</v>
       </c>
@@ -2841,11 +2566,8 @@
       <c r="C91" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D91" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="8" t="s">
         <v>48</v>
       </c>
@@ -2853,13 +2575,10 @@
         <v>3.3757000000000001</v>
       </c>
       <c r="C92" s="4">
-        <v>72.8</v>
-      </c>
-      <c r="D92" s="4">
         <v>65.5</v>
       </c>
     </row>
-    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="8" t="s">
         <v>0</v>
       </c>
@@ -2869,11 +2588,8 @@
       <c r="C93" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D93" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="8" t="s">
         <v>49</v>
       </c>
@@ -2881,13 +2597,10 @@
         <v>3.4676999999999998</v>
       </c>
       <c r="C94" s="4">
-        <v>72.900000000000006</v>
-      </c>
-      <c r="D94" s="4">
         <v>65.7</v>
       </c>
     </row>
-    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="8" t="s">
         <v>0</v>
       </c>
@@ -2897,11 +2610,8 @@
       <c r="C95" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D95" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="8" t="s">
         <v>50</v>
       </c>
@@ -2909,13 +2619,10 @@
         <v>3.4460000000000002</v>
       </c>
       <c r="C96" s="4">
-        <v>73.099999999999994</v>
-      </c>
-      <c r="D96" s="4">
         <v>66.3</v>
       </c>
     </row>
-    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="8" t="s">
         <v>0</v>
       </c>
@@ -2925,11 +2632,8 @@
       <c r="C97" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D97" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="8" t="s">
         <v>51</v>
       </c>
@@ -2937,13 +2641,10 @@
         <v>3.3431000000000002</v>
       </c>
       <c r="C98" s="4">
-        <v>73.2</v>
-      </c>
-      <c r="D98" s="4">
         <v>66.5</v>
       </c>
     </row>
-    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="8" t="s">
         <v>0</v>
       </c>
@@ -2953,11 +2654,8 @@
       <c r="C99" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D99" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="8" t="s">
         <v>52</v>
       </c>
@@ -2965,13 +2663,10 @@
         <v>3.5367999999999999</v>
       </c>
       <c r="C100" s="4">
-        <v>73.5</v>
-      </c>
-      <c r="D100" s="4">
         <v>66.900000000000006</v>
       </c>
     </row>
-    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="8" t="s">
         <v>0</v>
       </c>
@@ -2981,11 +2676,8 @@
       <c r="C101" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D101" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="8" t="s">
         <v>53</v>
       </c>
@@ -2993,13 +2685,10 @@
         <v>3.7469999999999999</v>
       </c>
       <c r="C102" s="4">
-        <v>73.7</v>
-      </c>
-      <c r="D102" s="4">
         <v>67.900000000000006</v>
       </c>
     </row>
-    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="8" t="s">
         <v>0</v>
       </c>
@@ -3009,11 +2698,8 @@
       <c r="C103" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D103" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="8" t="s">
         <v>54</v>
       </c>
@@ -3021,13 +2707,10 @@
         <v>3.9253</v>
       </c>
       <c r="C104" s="4">
-        <v>73.7</v>
-      </c>
-      <c r="D104" s="4">
         <v>67.900000000000006</v>
       </c>
     </row>
-    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="8" t="s">
         <v>0</v>
       </c>
@@ -3037,25 +2720,19 @@
       <c r="C105" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D105" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="8" t="s">
         <v>55</v>
       </c>
       <c r="B106" s="3">
         <v>4.3620000000000001</v>
       </c>
-      <c r="C106" s="6">
-        <v>74</v>
-      </c>
-      <c r="D106" s="4">
+      <c r="C106" s="4">
         <v>68.599999999999994</v>
       </c>
     </row>
-    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="8" t="s">
         <v>0</v>
       </c>
@@ -3065,11 +2742,8 @@
       <c r="C107" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D107" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="8" t="s">
         <v>56</v>
       </c>
@@ -3077,13 +2751,10 @@
         <v>4.5016999999999996</v>
       </c>
       <c r="C108" s="4">
-        <v>74.2</v>
-      </c>
-      <c r="D108" s="4">
         <v>69.099999999999994</v>
       </c>
     </row>
-    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="8" t="s">
         <v>0</v>
       </c>
@@ -3093,11 +2764,8 @@
       <c r="C109" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D109" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="8" t="s">
         <v>57</v>
       </c>
@@ -3105,13 +2773,10 @@
         <v>4.5829000000000004</v>
       </c>
       <c r="C110" s="4">
-        <v>74.400000000000006</v>
-      </c>
-      <c r="D110" s="4">
         <v>69.3</v>
       </c>
     </row>
-    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="8" t="s">
         <v>0</v>
       </c>
@@ -3121,11 +2786,8 @@
       <c r="C111" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D111" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="8" t="s">
         <v>58</v>
       </c>
@@ -3133,13 +2795,10 @@
         <v>4.7770999999999999</v>
       </c>
       <c r="C112" s="4">
-        <v>74.400000000000006</v>
-      </c>
-      <c r="D112" s="4">
         <v>69.099999999999994</v>
       </c>
     </row>
-    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="8" t="s">
         <v>0</v>
       </c>
@@ -3149,25 +2808,19 @@
       <c r="C113" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D113" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="8" t="s">
         <v>59</v>
       </c>
       <c r="B114" s="3">
         <v>4.8528000000000002</v>
       </c>
-      <c r="C114" s="4">
-        <v>74.599999999999994</v>
-      </c>
-      <c r="D114" s="6">
+      <c r="C114" s="6">
         <v>70</v>
       </c>
     </row>
-    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="8" t="s">
         <v>0</v>
       </c>
@@ -3177,11 +2830,8 @@
       <c r="C115" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D115" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="8" t="s">
         <v>60</v>
       </c>
@@ -3189,13 +2839,10 @@
         <v>5.0412999999999997</v>
       </c>
       <c r="C116" s="4">
-        <v>74.8</v>
-      </c>
-      <c r="D116" s="4">
         <v>70.099999999999994</v>
       </c>
     </row>
-    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="8" t="s">
         <v>0</v>
       </c>
@@ -3205,25 +2852,19 @@
       <c r="C117" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D117" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="8" t="s">
         <v>61</v>
       </c>
       <c r="B118" s="3">
         <v>5.0919999999999996</v>
       </c>
-      <c r="C118" s="6">
-        <v>75</v>
-      </c>
-      <c r="D118" s="4">
+      <c r="C118" s="4">
         <v>70.7</v>
       </c>
     </row>
-    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="8" t="s">
         <v>0</v>
       </c>
@@ -3233,11 +2874,8 @@
       <c r="C119" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D119" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="8" t="s">
         <v>62</v>
       </c>
@@ -3245,13 +2883,10 @@
         <v>4.9391999999999996</v>
       </c>
       <c r="C120" s="4">
-        <v>75.099999999999994</v>
-      </c>
-      <c r="D120" s="4">
         <v>70.8</v>
       </c>
     </row>
-    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="8" t="s">
         <v>0</v>
       </c>
@@ -3261,25 +2896,19 @@
       <c r="C121" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D121" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="8" t="s">
         <v>63</v>
       </c>
       <c r="B122" s="3">
         <v>4.7706999999999997</v>
       </c>
-      <c r="C122" s="6">
-        <v>75</v>
-      </c>
-      <c r="D122" s="4">
+      <c r="C122" s="4">
         <v>70.7</v>
       </c>
     </row>
-    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="8" t="s">
         <v>0</v>
       </c>
@@ -3289,11 +2918,8 @@
       <c r="C123" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D123" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="8" t="s">
         <v>64</v>
       </c>
@@ -3301,13 +2927,10 @@
         <v>4.7557999999999998</v>
       </c>
       <c r="C124" s="4">
-        <v>74.599999999999994</v>
-      </c>
-      <c r="D124" s="4">
         <v>71.2</v>
       </c>
     </row>
-    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="8" t="s">
         <v>0</v>
       </c>
@@ -3317,11 +2940,8 @@
       <c r="C125" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D125" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="8" t="s">
         <v>65</v>
       </c>
@@ -3329,13 +2949,10 @@
         <v>4.7085999999999997</v>
       </c>
       <c r="C126" s="4">
-        <v>75.3</v>
-      </c>
-      <c r="D126" s="4">
         <v>71.3</v>
       </c>
     </row>
-    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="8" t="s">
         <v>0</v>
       </c>
@@ -3345,11 +2962,8 @@
       <c r="C127" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D127" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="8" t="s">
         <v>66</v>
       </c>
@@ -3357,13 +2971,10 @@
         <v>4.6820000000000004</v>
       </c>
       <c r="C128" s="4">
-        <v>75.900000000000006</v>
-      </c>
-      <c r="D128" s="4">
         <v>71.7</v>
       </c>
     </row>
-    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="8" t="s">
         <v>0</v>
       </c>
@@ -3373,11 +2984,8 @@
       <c r="C129" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D129" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="8" t="s">
         <v>67</v>
       </c>
@@ -3385,13 +2993,10 @@
         <v>4.6367000000000003</v>
       </c>
       <c r="C130" s="4">
-        <v>76.099999999999994</v>
-      </c>
-      <c r="D130" s="4">
         <v>72.099999999999994</v>
       </c>
     </row>
-    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="8" t="s">
         <v>0</v>
       </c>
@@ -3401,11 +3006,8 @@
       <c r="C131" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D131" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="8" t="s">
         <v>68</v>
       </c>
@@ -3413,13 +3015,10 @@
         <v>4.4535999999999998</v>
       </c>
       <c r="C132" s="4">
-        <v>76.3</v>
-      </c>
-      <c r="D132" s="4">
         <v>72.5</v>
       </c>
     </row>
-    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="8" t="s">
         <v>0</v>
       </c>
@@ -3429,11 +3028,8 @@
       <c r="C133" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D133" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="8" t="s">
         <v>69</v>
       </c>
@@ -3441,13 +3037,10 @@
         <v>4.4671000000000003</v>
       </c>
       <c r="C134" s="4">
-        <v>76.099999999999994</v>
-      </c>
-      <c r="D134" s="4">
         <v>71.900000000000006</v>
       </c>
     </row>
-    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="8" t="s">
         <v>0</v>
       </c>
@@ -3457,11 +3050,8 @@
       <c r="C135" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D135" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="8" t="s">
         <v>70</v>
       </c>
@@ -3469,13 +3059,10 @@
         <v>4.3535000000000004</v>
       </c>
       <c r="C136" s="4">
-        <v>75.900000000000006</v>
-      </c>
-      <c r="D136" s="4">
         <v>71.400000000000006</v>
       </c>
     </row>
-    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="8" t="s">
         <v>0</v>
       </c>
@@ -3485,11 +3072,8 @@
       <c r="C137" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D137" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="8" t="s">
         <v>71</v>
       </c>
@@ -3497,13 +3081,10 @@
         <v>3.9828999999999999</v>
       </c>
       <c r="C138" s="4">
-        <v>76.099999999999994</v>
-      </c>
-      <c r="D138" s="4">
         <v>71.3</v>
       </c>
     </row>
-    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="8" t="s">
         <v>0</v>
       </c>
@@ -3513,11 +3094,8 @@
       <c r="C139" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D139" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="8" t="s">
         <v>72</v>
       </c>
@@ -3525,13 +3103,10 @@
         <v>3.5998999999999999</v>
       </c>
       <c r="C140" s="4">
-        <v>76.5</v>
-      </c>
-      <c r="D140" s="4">
         <v>71.2</v>
       </c>
     </row>
-    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="8" t="s">
         <v>0</v>
       </c>
@@ -3541,11 +3116,8 @@
       <c r="C141" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D141" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="8" t="s">
         <v>73</v>
       </c>
@@ -3553,13 +3125,10 @@
         <v>3.3856999999999999</v>
       </c>
       <c r="C142" s="4">
-        <v>76.7</v>
-      </c>
-      <c r="D142" s="4">
         <v>71.2</v>
       </c>
     </row>
-    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="8" t="s">
         <v>0</v>
       </c>
@@ -3569,11 +3138,8 @@
       <c r="C143" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D143" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="8" t="s">
         <v>74</v>
       </c>
@@ -3581,13 +3147,10 @@
         <v>3.3449</v>
       </c>
       <c r="C144" s="4">
-        <v>76.8</v>
-      </c>
-      <c r="D144" s="4">
         <v>71.3</v>
       </c>
     </row>
-    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="8" t="s">
         <v>0</v>
       </c>
@@ -3597,11 +3160,8 @@
       <c r="C145" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D145" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="8" t="s">
         <v>75</v>
       </c>
@@ -3609,13 +3169,10 @@
         <v>3.3388</v>
       </c>
       <c r="C146" s="4">
-        <v>76.7</v>
-      </c>
-      <c r="D146" s="4">
         <v>71.7</v>
       </c>
     </row>
-    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="8" t="s">
         <v>0</v>
       </c>
@@ -3625,11 +3182,8 @@
       <c r="C147" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D147" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="8" t="s">
         <v>76</v>
       </c>
@@ -3637,13 +3191,10 @@
         <v>3.3571</v>
       </c>
       <c r="C148" s="4">
-        <v>76.5</v>
-      </c>
-      <c r="D148" s="4">
         <v>71.8</v>
       </c>
     </row>
-    <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="8" t="s">
         <v>0</v>
       </c>
@@ -3653,11 +3204,8 @@
       <c r="C149" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D149" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="8" t="s">
         <v>77</v>
       </c>
@@ -3665,13 +3213,10 @@
         <v>3.3908</v>
       </c>
       <c r="C150" s="4">
-        <v>77.2</v>
-      </c>
-      <c r="D150" s="4">
         <v>71.900000000000006</v>
       </c>
     </row>
-    <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="8" t="s">
         <v>0</v>
       </c>
@@ -3681,11 +3226,8 @@
       <c r="C151" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D151" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="8" t="s">
         <v>78</v>
       </c>
@@ -3693,13 +3235,10 @@
         <v>3.4068999999999998</v>
       </c>
       <c r="C152" s="4">
-        <v>77.8</v>
-      </c>
-      <c r="D152" s="4">
         <v>72.8</v>
       </c>
     </row>
-    <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="8" t="s">
         <v>0</v>
       </c>
@@ -3709,11 +3248,8 @@
       <c r="C153" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D153" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="8" t="s">
         <v>79</v>
       </c>
@@ -3721,13 +3257,10 @@
         <v>3.4670999999999998</v>
       </c>
       <c r="C154" s="6">
-        <v>78</v>
-      </c>
-      <c r="D154" s="6">
         <v>73</v>
       </c>
     </row>
-    <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="8" t="s">
         <v>0</v>
       </c>
@@ -3737,11 +3270,8 @@
       <c r="C155" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D155" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="8" t="s">
         <v>80</v>
       </c>
@@ -3749,13 +3279,10 @@
         <v>3.464</v>
       </c>
       <c r="C156" s="4">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="D156" s="4">
         <v>72.599999999999994</v>
       </c>
     </row>
-    <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="8" t="s">
         <v>0</v>
       </c>
@@ -3765,25 +3292,19 @@
       <c r="C157" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D157" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="8" t="s">
         <v>81</v>
       </c>
       <c r="B158" s="3">
         <v>3.41</v>
       </c>
-      <c r="C158" s="6">
-        <v>78</v>
-      </c>
-      <c r="D158" s="4">
+      <c r="C158" s="4">
         <v>72.5</v>
       </c>
     </row>
-    <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="8" t="s">
         <v>0</v>
       </c>
@@ -3793,11 +3314,8 @@
       <c r="C159" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D159" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="8" t="s">
         <v>82</v>
       </c>
@@ -3805,13 +3323,10 @@
         <v>3.3519000000000001</v>
       </c>
       <c r="C160" s="4">
-        <v>77.8</v>
-      </c>
-      <c r="D160" s="4">
         <v>72.3</v>
       </c>
     </row>
-    <row r="161" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="8" t="s">
         <v>0</v>
       </c>
@@ -3821,11 +3336,8 @@
       <c r="C161" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D161" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="8" t="s">
         <v>83</v>
       </c>
@@ -3833,13 +3345,10 @@
         <v>3.3100999999999998</v>
       </c>
       <c r="C162" s="4">
-        <v>78.3</v>
-      </c>
-      <c r="D162" s="4">
         <v>72.599999999999994</v>
       </c>
     </row>
-    <row r="163" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="8" t="s">
         <v>0</v>
       </c>
@@ -3849,25 +3358,19 @@
       <c r="C163" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D163" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="8" t="s">
         <v>84</v>
       </c>
       <c r="B164" s="3">
         <v>3.2612999999999999</v>
       </c>
-      <c r="C164" s="4">
-        <v>78.7</v>
-      </c>
-      <c r="D164" s="6">
+      <c r="C164" s="6">
         <v>73</v>
       </c>
     </row>
-    <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="8" t="s">
         <v>0</v>
       </c>
@@ -3877,11 +3380,8 @@
       <c r="C165" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D165" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="8" t="s">
         <v>85</v>
       </c>
@@ -3889,13 +3389,10 @@
         <v>3.1240999999999999</v>
       </c>
       <c r="C166" s="4">
-        <v>78.900000000000006</v>
-      </c>
-      <c r="D166" s="4">
         <v>73.099999999999994</v>
       </c>
     </row>
-    <row r="167" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="8" t="s">
         <v>0</v>
       </c>
@@ -3905,11 +3402,8 @@
       <c r="C167" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D167" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="8" t="s">
         <v>86</v>
       </c>
@@ -3917,13 +3411,10 @@
         <v>2.9409999999999998</v>
       </c>
       <c r="C168" s="4">
-        <v>79.099999999999994</v>
-      </c>
-      <c r="D168" s="4">
         <v>73.2</v>
       </c>
     </row>
-    <row r="169" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="8" t="s">
         <v>0</v>
       </c>
@@ -3933,11 +3424,8 @@
       <c r="C169" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D169" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="8" t="s">
         <v>87</v>
       </c>
@@ -3945,13 +3433,10 @@
         <v>2.8317999999999999</v>
       </c>
       <c r="C170" s="4">
-        <v>78.900000000000006</v>
-      </c>
-      <c r="D170" s="4">
         <v>74.099999999999994</v>
       </c>
     </row>
-    <row r="171" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="8" t="s">
         <v>0</v>
       </c>
@@ -3961,11 +3446,8 @@
       <c r="C171" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D171" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="8" t="s">
         <v>88</v>
       </c>
@@ -3973,13 +3455,10 @@
         <v>2.6875</v>
       </c>
       <c r="C172" s="4">
-        <v>78.5</v>
-      </c>
-      <c r="D172" s="4">
         <v>74.5</v>
       </c>
     </row>
-    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="8" t="s">
         <v>0</v>
       </c>
@@ -3989,25 +3468,19 @@
       <c r="C173" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D173" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="8" t="s">
         <v>89</v>
       </c>
       <c r="B174" s="3">
         <v>2.5299999999999998</v>
       </c>
-      <c r="C174" s="4">
-        <v>79.5</v>
-      </c>
-      <c r="D174" s="6">
+      <c r="C174" s="6">
         <v>75</v>
       </c>
     </row>
-    <row r="175" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="8" t="s">
         <v>0</v>
       </c>
@@ -4017,25 +3490,19 @@
       <c r="C175" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D175" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="8" t="s">
         <v>90</v>
       </c>
       <c r="B176" s="3">
         <v>2.5333000000000001</v>
       </c>
-      <c r="C176" s="4">
-        <v>80.099999999999994</v>
-      </c>
-      <c r="D176" s="6">
+      <c r="C176" s="6">
         <v>75</v>
       </c>
     </row>
-    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="8" t="s">
         <v>0</v>
       </c>
@@ -4045,11 +3512,8 @@
       <c r="C177" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D177" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="8" t="s">
         <v>91</v>
       </c>
@@ -4057,13 +3521,10 @@
         <v>2.4005000000000001</v>
       </c>
       <c r="C178" s="4">
-        <v>80.2</v>
-      </c>
-      <c r="D178" s="4">
         <v>74.8</v>
       </c>
     </row>
-    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="8" t="s">
         <v>0</v>
       </c>
@@ -4073,11 +3534,8 @@
       <c r="C179" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D179" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="8" t="s">
         <v>92</v>
       </c>
@@ -4085,13 +3543,10 @@
         <v>2.1518999999999999</v>
       </c>
       <c r="C180" s="4">
-        <v>80.3</v>
-      </c>
-      <c r="D180" s="4">
         <v>74.8</v>
       </c>
     </row>
-    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="8" t="s">
         <v>0</v>
       </c>
@@ -4101,11 +3556,8 @@
       <c r="C181" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D181" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="8" t="s">
         <v>93</v>
       </c>
@@ -4113,13 +3565,10 @@
         <v>2.13</v>
       </c>
       <c r="C182" s="4">
-        <v>80.2</v>
-      </c>
-      <c r="D182" s="4">
         <v>74.900000000000006</v>
       </c>
     </row>
-    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="8" t="s">
         <v>0</v>
       </c>
@@ -4129,25 +3578,19 @@
       <c r="C183" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D183" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="8" t="s">
         <v>94</v>
       </c>
       <c r="B184" s="3">
         <v>2.1404000000000001</v>
       </c>
-      <c r="C184" s="6">
-        <v>80</v>
-      </c>
-      <c r="D184" s="4">
+      <c r="C184" s="4">
         <v>75.099999999999994</v>
       </c>
     </row>
-    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="8" t="s">
         <v>0</v>
       </c>
@@ -4157,11 +3600,8 @@
       <c r="C185" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D185" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="8" t="s">
         <v>95</v>
       </c>
@@ -4169,13 +3609,10 @@
         <v>2.1473</v>
       </c>
       <c r="C186" s="4">
-        <v>80.599999999999994</v>
-      </c>
-      <c r="D186" s="4">
         <v>75.900000000000006</v>
       </c>
     </row>
-    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="8" t="s">
         <v>0</v>
       </c>
@@ -4185,11 +3622,8 @@
       <c r="C187" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D187" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="8" t="s">
         <v>96</v>
       </c>
@@ -4197,13 +3631,10 @@
         <v>2.1436000000000002</v>
       </c>
       <c r="C188" s="4">
-        <v>80.900000000000006</v>
-      </c>
-      <c r="D188" s="4">
         <v>75.8</v>
       </c>
     </row>
-    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="8" t="s">
         <v>0</v>
       </c>
@@ -4213,25 +3644,19 @@
       <c r="C189" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D189" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="8" t="s">
         <v>97</v>
       </c>
       <c r="B190" s="3">
         <v>2.1589999999999998</v>
       </c>
-      <c r="C190" s="4">
-        <v>81.099999999999994</v>
-      </c>
-      <c r="D190" s="6">
+      <c r="C190" s="6">
         <v>76</v>
       </c>
     </row>
-    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="8" t="s">
         <v>0</v>
       </c>
@@ -4241,11 +3666,8 @@
       <c r="C191" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D191" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="8" t="s">
         <v>98</v>
       </c>
@@ -4253,13 +3675,10 @@
         <v>2.1463000000000001</v>
       </c>
       <c r="C192" s="4">
-        <v>81.099999999999994</v>
-      </c>
-      <c r="D192" s="4">
         <v>75.900000000000006</v>
       </c>
     </row>
-    <row r="193" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="8" t="s">
         <v>0</v>
       </c>
@@ -4269,11 +3688,8 @@
       <c r="C193" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D193" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" s="8" t="s">
         <v>99</v>
       </c>
@@ -4281,13 +3697,10 @@
         <v>2.0895000000000001</v>
       </c>
       <c r="C194" s="4">
-        <v>80.599999999999994</v>
-      </c>
-      <c r="D194" s="4">
         <v>76.3</v>
       </c>
     </row>
-    <row r="195" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="8" t="s">
         <v>0</v>
       </c>
@@ -4297,11 +3710,8 @@
       <c r="C195" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D195" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="8" t="s">
         <v>100</v>
       </c>
@@ -4309,13 +3719,10 @@
         <v>2.0706000000000002</v>
       </c>
       <c r="C196" s="4">
-        <v>80.400000000000006</v>
-      </c>
-      <c r="D196" s="4">
         <v>76.400000000000006</v>
       </c>
     </row>
-    <row r="197" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="8" t="s">
         <v>0</v>
       </c>
@@ -4325,11 +3732,8 @@
       <c r="C197" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D197" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="8" t="s">
         <v>101</v>
       </c>
@@ -4337,13 +3741,10 @@
         <v>2.0287999999999999</v>
       </c>
       <c r="C198" s="4">
-        <v>81.3</v>
-      </c>
-      <c r="D198" s="4">
         <v>76.5</v>
       </c>
     </row>
-    <row r="199" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="8" t="s">
         <v>0</v>
       </c>
@@ -4353,25 +3754,19 @@
       <c r="C199" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D199" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="8" t="s">
         <v>102</v>
       </c>
       <c r="B200" s="3">
         <v>2.0488</v>
       </c>
-      <c r="C200" s="6">
-        <v>82</v>
-      </c>
-      <c r="D200" s="4">
+      <c r="C200" s="4">
         <v>76.5</v>
       </c>
     </row>
-    <row r="201" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="8" t="s">
         <v>0</v>
       </c>
@@ -4381,25 +3776,19 @@
       <c r="C201" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D201" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="8" t="s">
         <v>103</v>
       </c>
       <c r="B202" s="3">
         <v>2.0859000000000001</v>
       </c>
-      <c r="C202" s="4">
-        <v>82.1</v>
-      </c>
-      <c r="D202" s="6">
+      <c r="C202" s="6">
         <v>77</v>
       </c>
     </row>
-    <row r="203" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="8" t="s">
         <v>0</v>
       </c>
@@ -4409,11 +3798,8 @@
       <c r="C203" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D203" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="8" t="s">
         <v>104</v>
       </c>
@@ -4421,13 +3807,10 @@
         <v>2.1126999999999998</v>
       </c>
       <c r="C204" s="4">
-        <v>82.2</v>
-      </c>
-      <c r="D204" s="4">
         <v>77.2</v>
       </c>
     </row>
-    <row r="205" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="8" t="s">
         <v>0</v>
       </c>
@@ -4437,25 +3820,19 @@
       <c r="C205" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D205" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="8" t="s">
         <v>105</v>
       </c>
       <c r="B206" s="3">
         <v>2.1160000000000001</v>
       </c>
-      <c r="C206" s="6">
-        <v>82</v>
-      </c>
-      <c r="D206" s="4">
+      <c r="C206" s="4">
         <v>76.900000000000006</v>
       </c>
     </row>
-    <row r="207" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="8" t="s">
         <v>0</v>
       </c>
@@ -4465,11 +3842,8 @@
       <c r="C207" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D207" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="8" t="s">
         <v>106</v>
       </c>
@@ -4477,13 +3851,10 @@
         <v>2.1143000000000001</v>
       </c>
       <c r="C208" s="4">
-        <v>81.900000000000006</v>
-      </c>
-      <c r="D208" s="4">
         <v>76.8</v>
       </c>
     </row>
-    <row r="209" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="8" t="s">
         <v>0</v>
       </c>
@@ -4493,11 +3864,8 @@
       <c r="C209" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D209" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" s="8" t="s">
         <v>107</v>
       </c>
@@ -4505,13 +3873,10 @@
         <v>2.1185999999999998</v>
       </c>
       <c r="C210" s="4">
-        <v>82.3</v>
-      </c>
-      <c r="D210" s="4">
         <v>76.7</v>
       </c>
     </row>
-    <row r="211" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" s="8" t="s">
         <v>0</v>
       </c>
@@ -4521,25 +3886,19 @@
       <c r="C211" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D211" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="8" t="s">
         <v>108</v>
       </c>
       <c r="B212" s="3">
         <v>2.1473</v>
       </c>
-      <c r="C212" s="4">
-        <v>82.6</v>
-      </c>
-      <c r="D212" s="6">
+      <c r="C212" s="6">
         <v>77</v>
       </c>
     </row>
-    <row r="213" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" s="8" t="s">
         <v>0</v>
       </c>
@@ -4549,11 +3908,8 @@
       <c r="C213" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D213" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" s="8" t="s">
         <v>109</v>
       </c>
@@ -4561,13 +3917,10 @@
         <v>2.1703000000000001</v>
       </c>
       <c r="C214" s="4">
-        <v>82.7</v>
-      </c>
-      <c r="D214" s="4">
         <v>76.900000000000006</v>
       </c>
     </row>
-    <row r="215" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" s="8" t="s">
         <v>0</v>
       </c>
@@ -4577,25 +3930,19 @@
       <c r="C215" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D215" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="8" t="s">
         <v>110</v>
       </c>
       <c r="B216" s="3">
         <v>2.1732</v>
       </c>
-      <c r="C216" s="6">
-        <v>83</v>
-      </c>
-      <c r="D216" s="4">
+      <c r="C216" s="4">
         <v>76.8</v>
       </c>
     </row>
-    <row r="217" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" s="8" t="s">
         <v>0</v>
       </c>
@@ -4605,11 +3952,8 @@
       <c r="C217" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D217" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="8" t="s">
         <v>111</v>
       </c>
@@ -4617,13 +3961,10 @@
         <v>2.1454</v>
       </c>
       <c r="C218" s="4">
-        <v>82.2</v>
-      </c>
-      <c r="D218" s="4">
         <v>76.8</v>
       </c>
     </row>
-    <row r="219" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="8" t="s">
         <v>0</v>
       </c>
@@ -4633,11 +3974,8 @@
       <c r="C219" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D219" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="8" t="s">
         <v>112</v>
       </c>
@@ -4645,13 +3983,10 @@
         <v>2.1383999999999999</v>
       </c>
       <c r="C220" s="4">
-        <v>82.1</v>
-      </c>
-      <c r="D220" s="4">
         <v>77.400000000000006</v>
       </c>
     </row>
-    <row r="221" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="8" t="s">
         <v>0</v>
       </c>
@@ -4661,25 +3996,19 @@
       <c r="C221" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D221" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" s="8" t="s">
         <v>113</v>
       </c>
       <c r="B222" s="3">
         <v>2.1372</v>
       </c>
-      <c r="C222" s="4">
-        <v>83.1</v>
-      </c>
-      <c r="D222" s="6">
+      <c r="C222" s="6">
         <v>78</v>
       </c>
     </row>
-    <row r="223" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="8" t="s">
         <v>0</v>
       </c>
@@ -4689,25 +4018,19 @@
       <c r="C223" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D223" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="8" t="s">
         <v>114</v>
       </c>
       <c r="B224" s="3">
         <v>2.1372</v>
       </c>
-      <c r="C224" s="4">
-        <v>83.7</v>
-      </c>
-      <c r="D224" s="6">
+      <c r="C224" s="6">
         <v>79</v>
       </c>
     </row>
-    <row r="225" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" s="8" t="s">
         <v>0</v>
       </c>
@@ -4717,25 +4040,19 @@
       <c r="C225" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D225" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" s="8" t="s">
         <v>115</v>
       </c>
       <c r="B226" s="3">
         <v>2.1255999999999999</v>
       </c>
-      <c r="C226" s="6">
-        <v>84</v>
-      </c>
-      <c r="D226" s="4">
+      <c r="C226" s="4">
         <v>79.2</v>
       </c>
     </row>
-    <row r="227" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" s="8" t="s">
         <v>0</v>
       </c>
@@ -4745,25 +4062,19 @@
       <c r="C227" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D227" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" s="8" t="s">
         <v>116</v>
       </c>
       <c r="B228" s="3">
         <v>2.1110000000000002</v>
       </c>
-      <c r="C228" s="6">
-        <v>84</v>
-      </c>
-      <c r="D228" s="4">
+      <c r="C228" s="4">
         <v>79.099999999999994</v>
       </c>
     </row>
-    <row r="229" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" s="8" t="s">
         <v>0</v>
       </c>
@@ -4773,11 +4084,8 @@
       <c r="C229" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D229" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" s="8" t="s">
         <v>117</v>
       </c>
@@ -4785,13 +4093,10 @@
         <v>2.1194000000000002</v>
       </c>
       <c r="C230" s="4">
-        <v>83.8</v>
-      </c>
-      <c r="D230" s="4">
         <v>79.8</v>
       </c>
     </row>
-    <row r="231" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" s="8" t="s">
         <v>0</v>
       </c>
@@ -4801,11 +4106,8 @@
       <c r="C231" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D231" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" s="8" t="s">
         <v>118</v>
       </c>
@@ -4813,13 +4115,10 @@
         <v>2.1324999999999998</v>
       </c>
       <c r="C232" s="4">
-        <v>83.7</v>
-      </c>
-      <c r="D232" s="4">
         <v>79.8</v>
       </c>
     </row>
-    <row r="233" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" s="8" t="s">
         <v>0</v>
       </c>
@@ -4829,11 +4128,8 @@
       <c r="C233" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D233" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" s="8" t="s">
         <v>119</v>
       </c>
@@ -4841,13 +4137,10 @@
         <v>2.1391</v>
       </c>
       <c r="C234" s="4">
-        <v>84.1</v>
-      </c>
-      <c r="D234" s="4">
         <v>80.400000000000006</v>
       </c>
     </row>
-    <row r="235" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" s="8" t="s">
         <v>0</v>
       </c>
@@ -4857,11 +4150,8 @@
       <c r="C235" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D235" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" s="8" t="s">
         <v>120</v>
       </c>
@@ -4869,13 +4159,10 @@
         <v>2.1966000000000001</v>
       </c>
       <c r="C236" s="4">
-        <v>84.7</v>
-      </c>
-      <c r="D236" s="4">
         <v>81.3</v>
       </c>
     </row>
-    <row r="237" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" s="8" t="s">
         <v>0</v>
       </c>
@@ -4885,11 +4172,8 @@
       <c r="C237" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D237" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" s="8" t="s">
         <v>121</v>
       </c>
@@ -4897,13 +4181,10 @@
         <v>2.3609</v>
       </c>
       <c r="C238" s="4">
-        <v>84.7</v>
-      </c>
-      <c r="D238" s="4">
         <v>80.400000000000006</v>
       </c>
     </row>
-    <row r="239" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" s="8" t="s">
         <v>0</v>
       </c>
@@ -4913,11 +4194,8 @@
       <c r="C239" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D239" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" s="8" t="s">
         <v>122</v>
       </c>
@@ -4925,13 +4203,10 @@
         <v>2.4729000000000001</v>
       </c>
       <c r="C240" s="4">
-        <v>84.7</v>
-      </c>
-      <c r="D240" s="4">
         <v>80.2</v>
       </c>
     </row>
-    <row r="241" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" s="8" t="s">
         <v>0</v>
       </c>
@@ -4941,25 +4216,19 @@
       <c r="C241" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D241" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" s="8" t="s">
         <v>123</v>
       </c>
       <c r="B242" s="3">
         <v>2.5116999999999998</v>
       </c>
-      <c r="C242" s="6">
-        <v>84</v>
-      </c>
-      <c r="D242" s="4">
+      <c r="C242" s="4">
         <v>80.900000000000006</v>
       </c>
     </row>
-    <row r="243" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" s="8" t="s">
         <v>0</v>
       </c>
@@ -4969,11 +4238,8 @@
       <c r="C243" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D243" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" s="8" t="s">
         <v>124</v>
       </c>
@@ -4981,13 +4247,10 @@
         <v>2.6004</v>
       </c>
       <c r="C244" s="4">
-        <v>83.9</v>
-      </c>
-      <c r="D244" s="4">
         <v>81.3</v>
       </c>
     </row>
-    <row r="245" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" s="8" t="s">
         <v>0</v>
       </c>
@@ -4997,11 +4260,8 @@
       <c r="C245" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D245" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" s="8" t="s">
         <v>125</v>
       </c>
@@ -5009,13 +4269,10 @@
         <v>2.7225999999999999</v>
       </c>
       <c r="C246" s="4">
-        <v>84.9</v>
-      </c>
-      <c r="D246" s="4">
         <v>81.5</v>
       </c>
     </row>
-    <row r="247" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" s="8" t="s">
         <v>0</v>
       </c>
@@ -5025,11 +4282,8 @@
       <c r="C247" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D247" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" s="8" t="s">
         <v>126</v>
       </c>
@@ -5037,13 +4291,10 @@
         <v>2.7938000000000001</v>
       </c>
       <c r="C248" s="4">
-        <v>85.7</v>
-      </c>
-      <c r="D248" s="4">
         <v>82.4</v>
       </c>
     </row>
-    <row r="249" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" s="8" t="s">
         <v>0</v>
       </c>
@@ -5053,25 +4304,19 @@
       <c r="C249" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D249" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" s="8" t="s">
         <v>127</v>
       </c>
       <c r="B250" s="3">
         <v>2.8889999999999998</v>
       </c>
-      <c r="C250" s="4">
-        <v>85.9</v>
-      </c>
-      <c r="D250" s="6">
+      <c r="C250" s="6">
         <v>83</v>
       </c>
     </row>
-    <row r="251" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" s="8" t="s">
         <v>0</v>
       </c>
@@ -5081,25 +4326,19 @@
       <c r="C251" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D251" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" s="8" t="s">
         <v>128</v>
       </c>
       <c r="B252" s="3">
         <v>2.9857</v>
       </c>
-      <c r="C252" s="6">
-        <v>86</v>
-      </c>
-      <c r="D252" s="4">
+      <c r="C252" s="4">
         <v>83.2</v>
       </c>
     </row>
-    <row r="253" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" s="8" t="s">
         <v>0</v>
       </c>
@@ -5109,11 +4348,8 @@
       <c r="C253" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D253" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" s="8" t="s">
         <v>129</v>
       </c>
@@ -5121,13 +4357,10 @@
         <v>3.1021999999999998</v>
       </c>
       <c r="C254" s="4">
-        <v>85.8</v>
-      </c>
-      <c r="D254" s="4">
         <v>84.2</v>
       </c>
     </row>
-    <row r="255" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" s="8" t="s">
         <v>0</v>
       </c>
@@ -5137,11 +4370,8 @@
       <c r="C255" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D255" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" s="8" t="s">
         <v>130</v>
       </c>
@@ -5149,13 +4379,10 @@
         <v>3.2265000000000001</v>
       </c>
       <c r="C256" s="4">
-        <v>85.6</v>
-      </c>
-      <c r="D256" s="4">
         <v>84.6</v>
       </c>
     </row>
-    <row r="257" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" s="8" t="s">
         <v>0</v>
       </c>
@@ -5165,11 +4392,8 @@
       <c r="C257" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D257" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" s="8" t="s">
         <v>131</v>
       </c>
@@ -5177,13 +4401,10 @@
         <v>3.3353999999999999</v>
       </c>
       <c r="C258" s="4">
-        <v>86.2</v>
-      </c>
-      <c r="D258" s="4">
         <v>83.8</v>
       </c>
     </row>
-    <row r="259" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" s="8" t="s">
         <v>0</v>
       </c>
@@ -5193,11 +4414,8 @@
       <c r="C259" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D259" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" s="8" t="s">
         <v>132</v>
       </c>
@@ -5205,13 +4423,10 @@
         <v>3.5019999999999998</v>
       </c>
       <c r="C260" s="4">
-        <v>86.3</v>
-      </c>
-      <c r="D260" s="4">
         <v>83.2</v>
       </c>
     </row>
-    <row r="261" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" s="8" t="s">
         <v>0</v>
       </c>
@@ -5221,11 +4436,8 @@
       <c r="C261" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D261" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" s="8" t="s">
         <v>133</v>
       </c>
@@ -5233,13 +4445,10 @@
         <v>3.5972</v>
       </c>
       <c r="C262" s="4">
-        <v>86.4</v>
-      </c>
-      <c r="D262" s="4">
         <v>83.2</v>
       </c>
     </row>
-    <row r="263" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" s="8" t="s">
         <v>0</v>
       </c>
@@ -5249,11 +4458,8 @@
       <c r="C263" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D263" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" s="8" t="s">
         <v>134</v>
       </c>
@@ -5261,13 +4467,10 @@
         <v>3.6842000000000001</v>
       </c>
       <c r="C264" s="4">
-        <v>86.5</v>
-      </c>
-      <c r="D264" s="4">
         <v>83.3</v>
       </c>
     </row>
-    <row r="265" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" s="8" t="s">
         <v>0</v>
       </c>
@@ -5277,11 +4480,8 @@
       <c r="C265" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D265" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" s="8" t="s">
         <v>135</v>
       </c>
@@ -5289,13 +4489,10 @@
         <v>3.7519</v>
       </c>
       <c r="C266" s="4">
-        <v>85.6</v>
-      </c>
-      <c r="D266" s="4">
         <v>83.5</v>
       </c>
     </row>
-    <row r="267" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" s="8" t="s">
         <v>0</v>
       </c>
@@ -5305,11 +4502,8 @@
       <c r="C267" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D267" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" s="8" t="s">
         <v>136</v>
       </c>
@@ -5317,13 +4511,10 @@
         <v>3.8182</v>
       </c>
       <c r="C268" s="4">
-        <v>85.7</v>
-      </c>
-      <c r="D268" s="4">
         <v>83.2</v>
       </c>
     </row>
-    <row r="269" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" s="8" t="s">
         <v>0</v>
       </c>
@@ -5333,11 +4524,8 @@
       <c r="C269" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D269" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" s="8" t="s">
         <v>137</v>
       </c>
@@ -5345,13 +4533,10 @@
         <v>3.8908999999999998</v>
       </c>
       <c r="C270" s="4">
-        <v>86.6</v>
-      </c>
-      <c r="D270" s="4">
         <v>83.5</v>
       </c>
     </row>
-    <row r="271" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" s="8" t="s">
         <v>0</v>
       </c>
@@ -5361,25 +4546,19 @@
       <c r="C271" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D271" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" s="8" t="s">
         <v>138</v>
       </c>
       <c r="B272" s="3">
         <v>3.9752999999999998</v>
       </c>
-      <c r="C272" s="4">
-        <v>87.2</v>
-      </c>
-      <c r="D272" s="6">
+      <c r="C272" s="6">
         <v>84</v>
       </c>
     </row>
-    <row r="273" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" s="8" t="s">
         <v>0</v>
       </c>
@@ -5389,11 +4568,8 @@
       <c r="C273" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D273" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" s="8" t="s">
         <v>139</v>
       </c>
@@ -5401,13 +4577,10 @@
         <v>4.0713999999999997</v>
       </c>
       <c r="C274" s="4">
-        <v>87.5</v>
-      </c>
-      <c r="D274" s="4">
         <v>84.6</v>
       </c>
     </row>
-    <row r="275" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" s="8" t="s">
         <v>0</v>
       </c>
@@ -5417,11 +4590,8 @@
       <c r="C275" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D275" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" s="8" t="s">
         <v>140</v>
       </c>
@@ -5429,13 +4599,10 @@
         <v>4.1478000000000002</v>
       </c>
       <c r="C276" s="4">
-        <v>87.7</v>
-      </c>
-      <c r="D276" s="4">
         <v>85.2</v>
       </c>
     </row>
-    <row r="277" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" s="8" t="s">
         <v>0</v>
       </c>
@@ -5445,11 +4612,8 @@
       <c r="C277" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D277" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" s="8" t="s">
         <v>141</v>
       </c>
@@ -5457,13 +4621,10 @@
         <v>4.2161999999999997</v>
       </c>
       <c r="C278" s="4">
-        <v>87.2</v>
-      </c>
-      <c r="D278" s="4">
         <v>85.2</v>
       </c>
     </row>
-    <row r="279" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" s="8" t="s">
         <v>0</v>
       </c>
@@ -5473,25 +4634,19 @@
       <c r="C279" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D279" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" s="8" t="s">
         <v>142</v>
       </c>
       <c r="B280" s="3">
         <v>4.5435999999999996</v>
       </c>
-      <c r="C280" s="6">
-        <v>87</v>
-      </c>
-      <c r="D280" s="4">
+      <c r="C280" s="4">
         <v>85.1</v>
       </c>
     </row>
-    <row r="281" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" s="8" t="s">
         <v>0</v>
       </c>
@@ -5501,25 +4656,19 @@
       <c r="C281" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D281" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" s="8" t="s">
         <v>143</v>
       </c>
       <c r="B282" s="3">
         <v>4.7416999999999998</v>
       </c>
-      <c r="C282" s="4">
-        <v>87.7</v>
-      </c>
-      <c r="D282" s="6">
+      <c r="C282" s="6">
         <v>85</v>
       </c>
     </row>
-    <row r="283" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" s="8" t="s">
         <v>0</v>
       </c>
@@ -5529,11 +4678,8 @@
       <c r="C283" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D283" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" s="8" t="s">
         <v>144</v>
       </c>
@@ -5541,13 +4687,10 @@
         <v>4.6874000000000002</v>
       </c>
       <c r="C284" s="4">
-        <v>88.3</v>
-      </c>
-      <c r="D284" s="4">
         <v>85.8</v>
       </c>
     </row>
-    <row r="285" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" s="8" t="s">
         <v>0</v>
       </c>
@@ -5557,11 +4700,8 @@
       <c r="C285" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D285" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" s="8" t="s">
         <v>145</v>
       </c>
@@ -5569,13 +4709,10 @@
         <v>4.6384999999999996</v>
       </c>
       <c r="C286" s="4">
-        <v>88.6</v>
-      </c>
-      <c r="D286" s="4">
         <v>86.7</v>
       </c>
     </row>
-    <row r="287" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" s="8" t="s">
         <v>0</v>
       </c>
@@ -5585,11 +4722,8 @@
       <c r="C287" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D287" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" s="8" t="s">
         <v>146</v>
       </c>
@@ -5597,13 +4731,10 @@
         <v>4.8483999999999998</v>
       </c>
       <c r="C288" s="4">
-        <v>88.9</v>
-      </c>
-      <c r="D288" s="4">
         <v>87.4</v>
       </c>
     </row>
-    <row r="289" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" s="8" t="s">
         <v>0</v>
       </c>
@@ -5613,11 +4744,8 @@
       <c r="C289" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D289" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" s="8" t="s">
         <v>147</v>
       </c>
@@ -5625,13 +4753,10 @@
         <v>4.4814999999999996</v>
       </c>
       <c r="C290" s="4">
-        <v>88.3</v>
-      </c>
-      <c r="D290" s="4">
         <v>88.5</v>
       </c>
     </row>
-    <row r="291" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" s="8" t="s">
         <v>0</v>
       </c>
@@ -5641,11 +4766,8 @@
       <c r="C291" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D291" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" s="8" t="s">
         <v>148</v>
       </c>
@@ -5653,13 +4775,10 @@
         <v>4.3620999999999999</v>
       </c>
       <c r="C292" s="4">
-        <v>88.3</v>
-      </c>
-      <c r="D292" s="4">
         <v>88.4</v>
       </c>
     </row>
-    <row r="293" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" s="8" t="s">
         <v>0</v>
       </c>
@@ -5669,11 +4788,8 @@
       <c r="C293" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D293" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" s="8" t="s">
         <v>149</v>
       </c>
@@ -5681,13 +4797,10 @@
         <v>4.5964</v>
       </c>
       <c r="C294" s="4">
-        <v>89.7</v>
-      </c>
-      <c r="D294" s="4">
         <v>89.3</v>
       </c>
     </row>
-    <row r="295" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" s="8" t="s">
         <v>0</v>
       </c>
@@ -5697,25 +4810,19 @@
       <c r="C295" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D295" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" s="8" t="s">
         <v>150</v>
       </c>
       <c r="B296" s="3">
         <v>4.7835000000000001</v>
       </c>
-      <c r="C296" s="4">
-        <v>90.2</v>
-      </c>
-      <c r="D296" s="6">
+      <c r="C296" s="6">
         <v>90</v>
       </c>
     </row>
-    <row r="297" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" s="8" t="s">
         <v>0</v>
       </c>
@@ -5725,11 +4832,8 @@
       <c r="C297" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D297" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" s="8" t="s">
         <v>151</v>
       </c>
@@ -5737,13 +4841,10 @@
         <v>4.8574000000000002</v>
       </c>
       <c r="C298" s="4">
-        <v>90.8</v>
-      </c>
-      <c r="D298" s="4">
         <v>91.7</v>
       </c>
     </row>
-    <row r="299" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" s="8" t="s">
         <v>0</v>
       </c>
@@ -5753,11 +4854,8 @@
       <c r="C299" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D299" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" s="8" t="s">
         <v>152</v>
       </c>
@@ -5765,13 +4863,10 @@
         <v>4.9405000000000001</v>
       </c>
       <c r="C300" s="4">
-        <v>91.2</v>
-      </c>
-      <c r="D300" s="4">
         <v>93.2</v>
       </c>
     </row>
-    <row r="301" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" s="8" t="s">
         <v>0</v>
       </c>
@@ -5781,11 +4876,8 @@
       <c r="C301" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D301" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" s="8" t="s">
         <v>153</v>
       </c>
@@ -5793,13 +4885,10 @@
         <v>4.9610000000000003</v>
       </c>
       <c r="C302" s="4">
-        <v>90.7</v>
-      </c>
-      <c r="D302" s="4">
         <v>94.1</v>
       </c>
     </row>
-    <row r="303" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" s="8" t="s">
         <v>0</v>
       </c>
@@ -5809,11 +4898,8 @@
       <c r="C303" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D303" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" s="8" t="s">
         <v>154</v>
       </c>
@@ -5821,13 +4907,10 @@
         <v>4.9652000000000003</v>
       </c>
       <c r="C304" s="4">
-        <v>90.7</v>
-      </c>
-      <c r="D304" s="4">
         <v>92.9</v>
       </c>
     </row>
-    <row r="305" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" s="8" t="s">
         <v>0</v>
       </c>
@@ -5837,11 +4920,8 @@
       <c r="C305" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D305" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" s="8" t="s">
         <v>155</v>
       </c>
@@ -5849,13 +4929,10 @@
         <v>5.0191999999999997</v>
       </c>
       <c r="C306" s="4">
-        <v>91.1</v>
-      </c>
-      <c r="D306" s="4">
         <v>92.4</v>
       </c>
     </row>
-    <row r="307" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" s="8" t="s">
         <v>0</v>
       </c>
@@ -5865,11 +4942,8 @@
       <c r="C307" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D307" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" s="8" t="s">
         <v>156</v>
       </c>
@@ -5877,13 +4951,10 @@
         <v>5.1131000000000002</v>
       </c>
       <c r="C308" s="4">
-        <v>91.5</v>
-      </c>
-      <c r="D308" s="4">
         <v>91.7</v>
       </c>
     </row>
-    <row r="309" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" s="8" t="s">
         <v>0</v>
       </c>
@@ -5893,11 +4964,8 @@
       <c r="C309" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D309" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" s="8" t="s">
         <v>157</v>
       </c>
@@ -5905,13 +4973,10 @@
         <v>4.2382999999999997</v>
       </c>
       <c r="C310" s="4">
-        <v>91.1</v>
-      </c>
-      <c r="D310" s="4">
         <v>89.5</v>
       </c>
     </row>
-    <row r="311" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" s="8" t="s">
         <v>0</v>
       </c>
@@ -5921,25 +4986,19 @@
       <c r="C311" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D311" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" s="8" t="s">
         <v>158</v>
       </c>
       <c r="B312" s="3">
         <v>3.2926000000000002</v>
       </c>
-      <c r="C312" s="6">
-        <v>91</v>
-      </c>
-      <c r="D312" s="4">
+      <c r="C312" s="4">
         <v>88.1</v>
       </c>
     </row>
-    <row r="313" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" s="8" t="s">
         <v>0</v>
       </c>
@@ -5949,11 +5008,8 @@
       <c r="C313" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D313" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" s="8" t="s">
         <v>159</v>
       </c>
@@ -5961,13 +5017,10 @@
         <v>2.4565000000000001</v>
       </c>
       <c r="C314" s="4">
-        <v>89.5</v>
-      </c>
-      <c r="D314" s="4">
         <v>87.2</v>
       </c>
     </row>
-    <row r="315" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" s="8" t="s">
         <v>0</v>
       </c>
@@ -5977,11 +5030,8 @@
       <c r="C315" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D315" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" s="8" t="s">
         <v>160</v>
       </c>
@@ -5989,13 +5039,10 @@
         <v>1.9431</v>
       </c>
       <c r="C316" s="4">
-        <v>89.7</v>
-      </c>
-      <c r="D316" s="4">
         <v>87.6</v>
       </c>
     </row>
-    <row r="317" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" s="8" t="s">
         <v>0</v>
       </c>
@@ -6005,11 +5052,8 @@
       <c r="C317" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D317" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" s="8" t="s">
         <v>161</v>
       </c>
@@ -6017,13 +5061,10 @@
         <v>1.6355</v>
       </c>
       <c r="C318" s="4">
-        <v>90.7</v>
-      </c>
-      <c r="D318" s="4">
         <v>87.6</v>
       </c>
     </row>
-    <row r="319" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" s="8" t="s">
         <v>0</v>
       </c>
@@ -6033,11 +5074,8 @@
       <c r="C319" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D319" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" s="8" t="s">
         <v>162</v>
       </c>
@@ -6045,13 +5083,10 @@
         <v>1.4222999999999999</v>
       </c>
       <c r="C320" s="4">
-        <v>91.3</v>
-      </c>
-      <c r="D320" s="4">
         <v>87.5</v>
       </c>
     </row>
-    <row r="321" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" s="8" t="s">
         <v>0</v>
       </c>
@@ -6061,11 +5096,8 @@
       <c r="C321" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D321" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" s="8" t="s">
         <v>163</v>
       </c>
@@ -6073,13 +5105,10 @@
         <v>1.2817000000000001</v>
       </c>
       <c r="C322" s="4">
-        <v>91.5</v>
-      </c>
-      <c r="D322" s="4">
         <v>87.8</v>
       </c>
     </row>
-    <row r="323" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" s="8" t="s">
         <v>0</v>
       </c>
@@ -6089,11 +5118,8 @@
       <c r="C323" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D323" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" s="8" t="s">
         <v>164</v>
       </c>
@@ -6101,13 +5127,10 @@
         <v>1.2279</v>
       </c>
       <c r="C324" s="4">
-        <v>91.7</v>
-      </c>
-      <c r="D324" s="4">
         <v>88.7</v>
       </c>
     </row>
-    <row r="325" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" s="8" t="s">
         <v>0</v>
       </c>
@@ -6117,11 +5140,8 @@
       <c r="C325" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D325" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" s="8" t="s">
         <v>165</v>
       </c>
@@ -6129,13 +5149,10 @@
         <v>0.97499999999999998</v>
       </c>
       <c r="C326" s="4">
-        <v>90.6</v>
-      </c>
-      <c r="D326" s="4">
         <v>87.8</v>
       </c>
     </row>
-    <row r="327" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" s="8" t="s">
         <v>0</v>
       </c>
@@ -6145,11 +5162,8 @@
       <c r="C327" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D327" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" s="8" t="s">
         <v>166</v>
       </c>
@@ -6157,13 +5171,10 @@
         <v>0.86050000000000004</v>
       </c>
       <c r="C328" s="4">
-        <v>90.8</v>
-      </c>
-      <c r="D328" s="4">
         <v>87.9</v>
       </c>
     </row>
-    <row r="329" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" s="8" t="s">
         <v>0</v>
       </c>
@@ -6173,11 +5184,8 @@
       <c r="C329" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D329" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" s="8" t="s">
         <v>167</v>
       </c>
@@ -6185,13 +5193,10 @@
         <v>0.77210000000000001</v>
       </c>
       <c r="C330" s="4">
-        <v>91.4</v>
-      </c>
-      <c r="D330" s="4">
         <v>87.6</v>
       </c>
     </row>
-    <row r="331" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" s="8" t="s">
         <v>0</v>
       </c>
@@ -6201,11 +5206,8 @@
       <c r="C331" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D331" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" s="8" t="s">
         <v>168</v>
       </c>
@@ -6213,13 +5215,10 @@
         <v>0.73750000000000004</v>
       </c>
       <c r="C332" s="4">
-        <v>91.8</v>
-      </c>
-      <c r="D332" s="4">
         <v>87.1</v>
       </c>
     </row>
-    <row r="333" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" s="8" t="s">
         <v>0</v>
       </c>
@@ -6229,11 +5228,8 @@
       <c r="C333" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D333" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" s="8" t="s">
         <v>169</v>
       </c>
@@ -6241,13 +5237,10 @@
         <v>0.71619999999999995</v>
       </c>
       <c r="C334" s="4">
-        <v>91.9</v>
-      </c>
-      <c r="D334" s="4">
         <v>87.6</v>
       </c>
     </row>
-    <row r="335" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" s="8" t="s">
         <v>0</v>
       </c>
@@ -6257,25 +5250,19 @@
       <c r="C335" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D335" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" s="8" t="s">
         <v>170</v>
       </c>
       <c r="B336" s="3">
         <v>0.71199999999999997</v>
       </c>
-      <c r="C336" s="6">
-        <v>92</v>
-      </c>
-      <c r="D336" s="4">
+      <c r="C336" s="4">
         <v>87.4</v>
       </c>
     </row>
-    <row r="337" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" s="8" t="s">
         <v>0</v>
       </c>
@@ -6285,11 +5272,8 @@
       <c r="C337" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D337" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" s="8" t="s">
         <v>171</v>
       </c>
@@ -6297,13 +5281,10 @@
         <v>0.67979999999999996</v>
       </c>
       <c r="C338" s="4">
-        <v>90.7</v>
-      </c>
-      <c r="D338" s="4">
         <v>87.8</v>
       </c>
     </row>
-    <row r="339" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339" s="8" t="s">
         <v>0</v>
       </c>
@@ -6313,11 +5294,8 @@
       <c r="C339" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D339" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" s="8" t="s">
         <v>172</v>
       </c>
@@ -6325,13 +5303,10 @@
         <v>0.66169999999999995</v>
       </c>
       <c r="C340" s="4">
-        <v>90.6</v>
-      </c>
-      <c r="D340" s="4">
         <v>87.8</v>
       </c>
     </row>
-    <row r="341" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" s="8" t="s">
         <v>0</v>
       </c>
@@ -6341,25 +5316,19 @@
       <c r="C341" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D341" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" s="8" t="s">
         <v>173</v>
       </c>
       <c r="B342" s="3">
         <v>0.64500000000000002</v>
       </c>
-      <c r="C342" s="6">
-        <v>92</v>
-      </c>
-      <c r="D342" s="4">
+      <c r="C342" s="4">
         <v>88.6</v>
       </c>
     </row>
-    <row r="343" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" s="8" t="s">
         <v>0</v>
       </c>
@@ -6369,11 +5338,8 @@
       <c r="C343" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D343" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" s="8" t="s">
         <v>174</v>
       </c>
@@ -6381,13 +5347,10 @@
         <v>0.64470000000000005</v>
       </c>
       <c r="C344" s="4">
-        <v>92.9</v>
-      </c>
-      <c r="D344" s="4">
         <v>89.3</v>
       </c>
     </row>
-    <row r="345" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" s="8" t="s">
         <v>0</v>
       </c>
@@ -6397,11 +5360,8 @@
       <c r="C345" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D345" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" s="8" t="s">
         <v>175</v>
       </c>
@@ -6409,13 +5369,10 @@
         <v>0.6865</v>
       </c>
       <c r="C346" s="4">
-        <v>92.9</v>
-      </c>
-      <c r="D346" s="4">
         <v>89.7</v>
       </c>
     </row>
-    <row r="347" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" s="8" t="s">
         <v>0</v>
       </c>
@@ -6425,25 +5382,19 @@
       <c r="C347" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D347" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" s="8" t="s">
         <v>176</v>
       </c>
       <c r="B348" s="3">
         <v>0.72760000000000002</v>
       </c>
-      <c r="C348" s="6">
-        <v>93</v>
-      </c>
-      <c r="D348" s="4">
+      <c r="C348" s="4">
         <v>89.5</v>
       </c>
     </row>
-    <row r="349" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349" s="8" t="s">
         <v>0</v>
       </c>
@@ -6453,11 +5404,8 @@
       <c r="C349" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D349" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" s="8" t="s">
         <v>177</v>
       </c>
@@ -6465,13 +5413,10 @@
         <v>0.8488</v>
       </c>
       <c r="C350" s="4">
-        <v>92.2</v>
-      </c>
-      <c r="D350" s="4">
         <v>89.8</v>
       </c>
     </row>
-    <row r="351" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351" s="8" t="s">
         <v>0</v>
       </c>
@@ -6481,11 +5426,8 @@
       <c r="C351" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D351" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" s="8" t="s">
         <v>178</v>
       </c>
@@ -6493,13 +5435,10 @@
         <v>0.89549999999999996</v>
       </c>
       <c r="C352" s="4">
-        <v>92.3</v>
-      </c>
-      <c r="D352" s="4">
         <v>89.6</v>
       </c>
     </row>
-    <row r="353" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" s="8" t="s">
         <v>0</v>
       </c>
@@ -6509,11 +5448,8 @@
       <c r="C353" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D353" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354" s="8" t="s">
         <v>179</v>
       </c>
@@ -6521,13 +5457,10 @@
         <v>0.88049999999999995</v>
       </c>
       <c r="C354" s="4">
-        <v>92.9</v>
-      </c>
-      <c r="D354" s="4">
         <v>89.7</v>
       </c>
     </row>
-    <row r="355" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" s="8" t="s">
         <v>0</v>
       </c>
@@ -6537,11 +5470,8 @@
       <c r="C355" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D355" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356" s="8" t="s">
         <v>180</v>
       </c>
@@ -6549,13 +5479,10 @@
         <v>0.99770000000000003</v>
       </c>
       <c r="C356" s="4">
-        <v>93.6</v>
-      </c>
-      <c r="D356" s="4">
         <v>89.8</v>
       </c>
     </row>
-    <row r="357" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357" s="8" t="s">
         <v>0</v>
       </c>
@@ -6565,11 +5492,8 @@
       <c r="C357" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D357" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358" s="8" t="s">
         <v>181</v>
       </c>
@@ -6577,13 +5501,10 @@
         <v>1.042</v>
       </c>
       <c r="C358" s="4">
-        <v>93.6</v>
-      </c>
-      <c r="D358" s="4">
         <v>90.2</v>
       </c>
     </row>
-    <row r="359" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359" s="8" t="s">
         <v>0</v>
       </c>
@@ -6593,11 +5514,8 @@
       <c r="C359" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D359" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360" s="8" t="s">
         <v>182</v>
       </c>
@@ -6605,13 +5523,10 @@
         <v>1.0217000000000001</v>
       </c>
       <c r="C360" s="4">
-        <v>93.9</v>
-      </c>
-      <c r="D360" s="4">
         <v>91.1</v>
       </c>
     </row>
-    <row r="361" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361" s="8" t="s">
         <v>0</v>
       </c>
@@ -6621,11 +5536,8 @@
       <c r="C361" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D361" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A362" s="8" t="s">
         <v>183</v>
       </c>
@@ -6633,13 +5545,10 @@
         <v>1.0172000000000001</v>
       </c>
       <c r="C362" s="4">
-        <v>92.5</v>
-      </c>
-      <c r="D362" s="4">
         <v>92.9</v>
       </c>
     </row>
-    <row r="363" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A363" s="8" t="s">
         <v>0</v>
       </c>
@@ -6649,11 +5558,8 @@
       <c r="C363" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D363" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364" s="8" t="s">
         <v>184</v>
       </c>
@@ -6661,13 +5567,10 @@
         <v>1.0867</v>
       </c>
       <c r="C364" s="4">
-        <v>92.6</v>
-      </c>
-      <c r="D364" s="4">
         <v>93.4</v>
       </c>
     </row>
-    <row r="365" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365" s="8" t="s">
         <v>0</v>
       </c>
@@ -6677,11 +5580,8 @@
       <c r="C365" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D365" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366" s="8" t="s">
         <v>185</v>
       </c>
@@ -6689,13 +5589,10 @@
         <v>1.1755</v>
       </c>
       <c r="C366" s="4">
-        <v>94.6</v>
-      </c>
-      <c r="D366" s="4">
         <v>94.5</v>
       </c>
     </row>
-    <row r="367" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A367" s="8" t="s">
         <v>0</v>
       </c>
@@ -6705,11 +5602,8 @@
       <c r="C367" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D367" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368" s="8" t="s">
         <v>186</v>
       </c>
@@ -6717,13 +5611,10 @@
         <v>1.3211999999999999</v>
       </c>
       <c r="C368" s="4">
-        <v>95.6</v>
-      </c>
-      <c r="D368" s="4">
         <v>95.3</v>
       </c>
     </row>
-    <row r="369" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369" s="8" t="s">
         <v>0</v>
       </c>
@@ -6733,11 +5624,8 @@
       <c r="C369" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D369" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370" s="8" t="s">
         <v>187</v>
       </c>
@@ -6745,13 +5633,10 @@
         <v>1.4251</v>
       </c>
       <c r="C370" s="4">
-        <v>95.7</v>
-      </c>
-      <c r="D370" s="4">
         <v>95.8</v>
       </c>
     </row>
-    <row r="371" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371" s="8" t="s">
         <v>0</v>
       </c>
@@ -6761,11 +5646,8 @@
       <c r="C371" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D371" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372" s="8" t="s">
         <v>188</v>
       </c>
@@ -6773,13 +5655,10 @@
         <v>1.4885999999999999</v>
       </c>
       <c r="C372" s="4">
-        <v>95.8</v>
-      </c>
-      <c r="D372" s="4">
         <v>95.3</v>
       </c>
     </row>
-    <row r="373" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373" s="8" t="s">
         <v>0</v>
       </c>
@@ -6789,11 +5668,8 @@
       <c r="C373" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D373" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374" s="8" t="s">
         <v>189</v>
       </c>
@@ -6801,13 +5677,10 @@
         <v>1.5975999999999999</v>
       </c>
       <c r="C374" s="4">
-        <v>94.1</v>
-      </c>
-      <c r="D374" s="4">
         <v>95.4</v>
       </c>
     </row>
-    <row r="375" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375" s="8" t="s">
         <v>0</v>
       </c>
@@ -6817,11 +5690,8 @@
       <c r="C375" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D375" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376" s="8" t="s">
         <v>190</v>
       </c>
@@ -6829,13 +5699,10 @@
         <v>1.5521</v>
       </c>
       <c r="C376" s="4">
-        <v>94.4</v>
-      </c>
-      <c r="D376" s="4">
         <v>95.4</v>
       </c>
     </row>
-    <row r="377" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377" s="8" t="s">
         <v>0</v>
       </c>
@@ -6845,11 +5712,8 @@
       <c r="C377" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D377" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378" s="8" t="s">
         <v>191</v>
       </c>
@@ -6857,13 +5721,10 @@
         <v>1.5365</v>
       </c>
       <c r="C378" s="4">
-        <v>96.3</v>
-      </c>
-      <c r="D378" s="4">
         <v>95.5</v>
       </c>
     </row>
-    <row r="379" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379" s="8" t="s">
         <v>0</v>
       </c>
@@ -6873,11 +5734,8 @@
       <c r="C379" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D379" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380" s="8" t="s">
         <v>192</v>
       </c>
@@ -6885,13 +5743,10 @@
         <v>1.5759000000000001</v>
       </c>
       <c r="C380" s="4">
-        <v>97.1</v>
-      </c>
-      <c r="D380" s="4">
         <v>96.7</v>
       </c>
     </row>
-    <row r="381" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381" s="8" t="s">
         <v>0</v>
       </c>
@@ -6901,11 +5756,8 @@
       <c r="C381" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D381" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382" s="8" t="s">
         <v>193</v>
       </c>
@@ -6913,13 +5765,10 @@
         <v>1.4846999999999999</v>
       </c>
       <c r="C382" s="4">
-        <v>97.1</v>
-      </c>
-      <c r="D382" s="4">
         <v>97.6</v>
       </c>
     </row>
-    <row r="383" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383" s="8" t="s">
         <v>0</v>
       </c>
@@ -6929,11 +5778,8 @@
       <c r="C383" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D383" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A384" s="8" t="s">
         <v>194</v>
       </c>
@@ -6941,13 +5787,10 @@
         <v>1.4260999999999999</v>
       </c>
       <c r="C384" s="4">
-        <v>97.4</v>
-      </c>
-      <c r="D384" s="4">
         <v>98.4</v>
       </c>
     </row>
-    <row r="385" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A385" s="8" t="s">
         <v>0</v>
       </c>
@@ -6957,11 +5800,8 @@
       <c r="C385" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D385" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A386" s="8" t="s">
         <v>195</v>
       </c>
@@ -6969,13 +5809,10 @@
         <v>1.2222</v>
       </c>
       <c r="C386" s="4">
-        <v>95.6</v>
-      </c>
-      <c r="D386" s="4">
         <v>100.7</v>
       </c>
     </row>
-    <row r="387" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A387" s="8" t="s">
         <v>0</v>
       </c>
@@ -6985,11 +5822,8 @@
       <c r="C387" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D387" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A388" s="8" t="s">
         <v>196</v>
       </c>
@@ -6997,13 +5831,10 @@
         <v>1.0483</v>
       </c>
       <c r="C388" s="4">
-        <v>95.8</v>
-      </c>
-      <c r="D388" s="4">
         <v>101.9</v>
       </c>
     </row>
-    <row r="389" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A389" s="8" t="s">
         <v>0</v>
       </c>
@@ -7013,11 +5844,8 @@
       <c r="C389" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D389" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A390" s="8" t="s">
         <v>197</v>
       </c>
@@ -7025,13 +5853,10 @@
         <v>0.85850000000000004</v>
       </c>
       <c r="C390" s="4">
-        <v>98.2</v>
-      </c>
-      <c r="D390" s="4">
         <v>102.8</v>
       </c>
     </row>
-    <row r="391" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A391" s="8" t="s">
         <v>0</v>
       </c>
@@ -7041,11 +5866,8 @@
       <c r="C391" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D391" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A392" s="8" t="s">
         <v>198</v>
       </c>
@@ -7053,13 +5875,10 @@
         <v>0.74429999999999996</v>
       </c>
       <c r="C392" s="4">
-        <v>99.1</v>
-      </c>
-      <c r="D392" s="4">
         <v>103.8</v>
       </c>
     </row>
-    <row r="393" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A393" s="8" t="s">
         <v>0</v>
       </c>
@@ -7069,11 +5888,8 @@
       <c r="C393" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D393" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A394" s="8" t="s">
         <v>199</v>
       </c>
@@ -7081,13 +5897,10 @@
         <v>0.68489999999999995</v>
       </c>
       <c r="C394" s="4">
-        <v>99.1</v>
-      </c>
-      <c r="D394" s="4">
         <v>103.9</v>
       </c>
     </row>
-    <row r="395" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A395" s="8" t="s">
         <v>0</v>
       </c>
@@ -7097,11 +5910,8 @@
       <c r="C395" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D395" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A396" s="8" t="s">
         <v>200</v>
       </c>
@@ -7109,13 +5919,10 @@
         <v>0.65890000000000004</v>
       </c>
       <c r="C396" s="4">
-        <v>99.3</v>
-      </c>
-      <c r="D396" s="4">
         <v>103.6</v>
       </c>
     </row>
-    <row r="397" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A397" s="8" t="s">
         <v>0</v>
       </c>
@@ -7125,11 +5932,8 @@
       <c r="C397" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D397" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A398" s="8" t="s">
         <v>201</v>
       </c>
@@ -7137,13 +5941,10 @@
         <v>0.497</v>
       </c>
       <c r="C398" s="4">
-        <v>97.5</v>
-      </c>
-      <c r="D398" s="4">
         <v>102.6</v>
       </c>
     </row>
-    <row r="399" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A399" s="8" t="s">
         <v>0</v>
       </c>
@@ -7153,11 +5954,8 @@
       <c r="C399" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D399" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A400" s="8" t="s">
         <v>202</v>
       </c>
@@ -7165,13 +5963,10 @@
         <v>0.33239999999999997</v>
       </c>
       <c r="C400" s="4">
-        <v>97.6</v>
-      </c>
-      <c r="D400" s="4">
         <v>103.5</v>
       </c>
     </row>
-    <row r="401" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A401" s="8" t="s">
         <v>0</v>
       </c>
@@ -7181,11 +5976,8 @@
       <c r="C401" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D401" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A402" s="8" t="s">
         <v>203</v>
       </c>
@@ -7193,13 +5985,10 @@
         <v>0.24629999999999999</v>
       </c>
       <c r="C402" s="4">
-        <v>99.6</v>
-      </c>
-      <c r="D402" s="4">
         <v>105.1</v>
       </c>
     </row>
-    <row r="403" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A403" s="8" t="s">
         <v>0</v>
       </c>
@@ -7209,11 +5998,8 @@
       <c r="C403" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D403" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A404" s="8" t="s">
         <v>204</v>
       </c>
@@ -7221,13 +6007,10 @@
         <v>0.2079</v>
       </c>
       <c r="C404" s="4">
-        <v>99.8</v>
-      </c>
-      <c r="D404" s="4">
         <v>105.2</v>
       </c>
     </row>
-    <row r="405" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A405" s="8" t="s">
         <v>0</v>
       </c>
@@ -7237,11 +6020,8 @@
       <c r="C405" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D405" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A406" s="8" t="s">
         <v>205</v>
       </c>
@@ -7249,13 +6029,10 @@
         <v>0.192</v>
       </c>
       <c r="C406" s="4">
-        <v>99.6</v>
-      </c>
-      <c r="D406" s="4">
         <v>104.9</v>
       </c>
     </row>
-    <row r="407" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A407" s="8" t="s">
         <v>0</v>
       </c>
@@ -7265,11 +6042,8 @@
       <c r="C407" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D407" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A408" s="8" t="s">
         <v>206</v>
       </c>
@@ -7277,13 +6051,10 @@
         <v>0.1855</v>
       </c>
       <c r="C408" s="4">
-        <v>99.9</v>
-      </c>
-      <c r="D408" s="4">
         <v>104.8</v>
       </c>
     </row>
-    <row r="409" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A409" s="8" t="s">
         <v>0</v>
       </c>
@@ -7293,11 +6064,8 @@
       <c r="C409" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D409" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A410" s="8" t="s">
         <v>207</v>
       </c>
@@ -7305,13 +6073,10 @@
         <v>0.2049</v>
       </c>
       <c r="C410" s="4">
-        <v>97.9</v>
-      </c>
-      <c r="D410" s="4">
         <v>105.7</v>
       </c>
     </row>
-    <row r="411" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A411" s="8" t="s">
         <v>0</v>
       </c>
@@ -7321,25 +6086,19 @@
       <c r="C411" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D411" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A412" s="8" t="s">
         <v>208</v>
       </c>
       <c r="B412" s="3">
         <v>0.22339999999999999</v>
       </c>
-      <c r="C412" s="4">
-        <v>97.7</v>
-      </c>
-      <c r="D412" s="6">
+      <c r="C412" s="6">
         <v>106</v>
       </c>
     </row>
-    <row r="413" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A413" s="8" t="s">
         <v>0</v>
       </c>
@@ -7349,11 +6108,8 @@
       <c r="C413" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D413" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A414" s="8" t="s">
         <v>209</v>
       </c>
@@ -7361,13 +6117,10 @@
         <v>0.20610000000000001</v>
       </c>
       <c r="C414" s="6">
-        <v>100</v>
-      </c>
-      <c r="D414" s="6">
         <v>106</v>
       </c>
     </row>
-    <row r="415" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A415" s="8" t="s">
         <v>0</v>
       </c>
@@ -7377,11 +6130,8 @@
       <c r="C415" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D415" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A416" s="8" t="s">
         <v>210</v>
       </c>
@@ -7389,13 +6139,10 @@
         <v>0.2089</v>
       </c>
       <c r="C416" s="4">
-        <v>100.3</v>
-      </c>
-      <c r="D416" s="4">
         <v>104.9</v>
       </c>
     </row>
-    <row r="417" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A417" s="8" t="s">
         <v>0</v>
       </c>
@@ -7405,11 +6152,8 @@
       <c r="C417" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D417" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A418" s="8" t="s">
         <v>211</v>
       </c>
@@ -7417,13 +6161,10 @@
         <v>0.20119999999999999</v>
       </c>
       <c r="C418" s="4">
-        <v>100.3</v>
-      </c>
-      <c r="D418" s="4">
         <v>104.5</v>
       </c>
     </row>
-    <row r="419" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A419" s="8" t="s">
         <v>0</v>
       </c>
@@ -7433,11 +6174,8 @@
       <c r="C419" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D419" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A420" s="8" t="s">
         <v>212</v>
       </c>
@@ -7445,13 +6183,10 @@
         <v>0.21029999999999999</v>
       </c>
       <c r="C420" s="4">
-        <v>100.5</v>
-      </c>
-      <c r="D420" s="4">
         <v>105.2</v>
       </c>
     </row>
-    <row r="421" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A421" s="8" t="s">
         <v>0</v>
       </c>
@@ -7461,11 +6196,8 @@
       <c r="C421" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D421" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A422" s="8" t="s">
         <v>213</v>
       </c>
@@ -7473,13 +6205,10 @@
         <v>0.22140000000000001</v>
       </c>
       <c r="C422" s="4">
-        <v>98.7</v>
-      </c>
-      <c r="D422" s="4">
         <v>104.6</v>
       </c>
     </row>
-    <row r="423" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A423" s="8" t="s">
         <v>0</v>
       </c>
@@ -7489,11 +6218,8 @@
       <c r="C423" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D423" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A424" s="8" t="s">
         <v>214</v>
       </c>
@@ -7501,13 +6227,10 @@
         <v>0.22589999999999999</v>
       </c>
       <c r="C424" s="4">
-        <v>98.7</v>
-      </c>
-      <c r="D424" s="4">
         <v>104.4</v>
       </c>
     </row>
-    <row r="425" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A425" s="8" t="s">
         <v>0</v>
       </c>
@@ -7517,11 +6240,8 @@
       <c r="C425" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D425" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A426" s="8" t="s">
         <v>215</v>
       </c>
@@ -7529,13 +6249,10 @@
         <v>0.22320000000000001</v>
       </c>
       <c r="C426" s="4">
-        <v>100.5</v>
-      </c>
-      <c r="D426" s="4">
         <v>104.5</v>
       </c>
     </row>
-    <row r="427" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A427" s="8" t="s">
         <v>0</v>
       </c>
@@ -7545,11 +6262,8 @@
       <c r="C427" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D427" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A428" s="8" t="s">
         <v>216</v>
       </c>
@@ -7557,13 +6271,10 @@
         <v>0.2258</v>
       </c>
       <c r="C428" s="4">
-        <v>100.5</v>
-      </c>
-      <c r="D428" s="4">
         <v>103.5</v>
       </c>
     </row>
-    <row r="429" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A429" s="8" t="s">
         <v>0</v>
       </c>
@@ -7573,11 +6284,8 @@
       <c r="C429" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D429" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A430" s="8" t="s">
         <v>217</v>
       </c>
@@ -7585,13 +6293,10 @@
         <v>0.22339999999999999</v>
       </c>
       <c r="C430" s="4">
-        <v>100.2</v>
-      </c>
-      <c r="D430" s="4">
         <v>103.2</v>
       </c>
     </row>
-    <row r="431" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A431" s="8" t="s">
         <v>0</v>
       </c>
@@ -7601,11 +6306,8 @@
       <c r="C431" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D431" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A432" s="8" t="s">
         <v>218</v>
       </c>
@@ -7613,13 +6315,10 @@
         <v>0.27350000000000002</v>
       </c>
       <c r="C432" s="4">
-        <v>100.5</v>
-      </c>
-      <c r="D432" s="4">
         <v>104.2</v>
       </c>
     </row>
-    <row r="433" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A433" s="8" t="s">
         <v>0</v>
       </c>
@@ -7629,11 +6328,8 @@
       <c r="C433" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D433" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A434" s="8" t="s">
         <v>219</v>
       </c>
@@ -7641,13 +6337,10 @@
         <v>0.29199999999999998</v>
       </c>
       <c r="C434" s="4">
-        <v>98.5</v>
-      </c>
-      <c r="D434" s="4">
         <v>104.8</v>
       </c>
     </row>
-    <row r="435" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A435" s="8" t="s">
         <v>0</v>
       </c>
@@ -7657,11 +6350,8 @@
       <c r="C435" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D435" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A436" s="8" t="s">
         <v>220</v>
       </c>
@@ -7669,13 +6359,10 @@
         <v>0.28810000000000002</v>
       </c>
       <c r="C436" s="4">
-        <v>98.1</v>
-      </c>
-      <c r="D436" s="4">
         <v>104.2</v>
       </c>
     </row>
-    <row r="437" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A437" s="8" t="s">
         <v>0</v>
       </c>
@@ -7685,11 +6372,8 @@
       <c r="C437" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D437" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A438" s="8" t="s">
         <v>221</v>
       </c>
@@ -7697,13 +6381,10 @@
         <v>0.30530000000000002</v>
       </c>
       <c r="C438" s="4">
-        <v>100.3</v>
-      </c>
-      <c r="D438" s="4">
         <v>103.7</v>
       </c>
     </row>
-    <row r="439" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A439" s="8" t="s">
         <v>0</v>
       </c>
@@ -7713,25 +6394,19 @@
       <c r="C439" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D439" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A440" s="8" t="s">
         <v>222</v>
       </c>
       <c r="B440" s="3">
         <v>0.32969999999999999</v>
       </c>
-      <c r="C440" s="4">
-        <v>100.8</v>
-      </c>
-      <c r="D440" s="6">
+      <c r="C440" s="6">
         <v>103</v>
       </c>
     </row>
-    <row r="441" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A441" s="8" t="s">
         <v>0</v>
       </c>
@@ -7741,11 +6416,8 @@
       <c r="C441" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D441" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A442" s="8" t="s">
         <v>223</v>
       </c>
@@ -7753,13 +6425,10 @@
         <v>0.3246</v>
       </c>
       <c r="C442" s="4">
-        <v>100.7</v>
-      </c>
-      <c r="D442" s="4">
         <v>103.2</v>
       </c>
     </row>
-    <row r="443" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A443" s="8" t="s">
         <v>0</v>
       </c>
@@ -7769,11 +6438,8 @@
       <c r="C443" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D443" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A444" s="8" t="s">
         <v>224</v>
       </c>
@@ -7781,13 +6447,10 @@
         <v>0.2414</v>
       </c>
       <c r="C444" s="4">
-        <v>100.8</v>
-      </c>
-      <c r="D444" s="4">
         <v>103.3</v>
       </c>
     </row>
-    <row r="445" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A445" s="8" t="s">
         <v>0</v>
       </c>
@@ -7797,11 +6460,8 @@
       <c r="C445" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D445" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A446" s="8" t="s">
         <v>225</v>
       </c>
@@ -7809,13 +6469,10 @@
         <v>0.20499999999999999</v>
       </c>
       <c r="C446" s="4">
-        <v>98.7</v>
-      </c>
-      <c r="D446" s="4">
         <v>101.9</v>
       </c>
     </row>
-    <row r="447" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A447" s="8" t="s">
         <v>0</v>
       </c>
@@ -7825,11 +6482,8 @@
       <c r="C447" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D447" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A448" s="8" t="s">
         <v>226</v>
       </c>
@@ -7837,13 +6491,10 @@
         <v>0.19159999999999999</v>
       </c>
       <c r="C448" s="4">
-        <v>98.6</v>
-      </c>
-      <c r="D448" s="4">
         <v>101.7</v>
       </c>
     </row>
-    <row r="449" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A449" s="8" t="s">
         <v>0</v>
       </c>
@@ -7853,11 +6504,8 @@
       <c r="C449" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D449" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A450" s="8" t="s">
         <v>227</v>
       </c>
@@ -7865,13 +6513,10 @@
         <v>9.7100000000000006E-2</v>
       </c>
       <c r="C450" s="4">
-        <v>100.4</v>
-      </c>
-      <c r="D450" s="4">
         <v>101.6</v>
       </c>
     </row>
-    <row r="451" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A451" s="8" t="s">
         <v>0</v>
       </c>
@@ -7881,11 +6526,8 @@
       <c r="C451" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D451" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A452" s="8" t="s">
         <v>228</v>
       </c>
@@ -7893,13 +6535,10 @@
         <v>8.2600000000000007E-2</v>
       </c>
       <c r="C452" s="4">
-        <v>100.7</v>
-      </c>
-      <c r="D452" s="4">
         <v>102.1</v>
       </c>
     </row>
-    <row r="453" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A453" s="8" t="s">
         <v>0</v>
       </c>
@@ -7909,25 +6548,19 @@
       <c r="C453" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D453" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A454" s="8" t="s">
         <v>229</v>
       </c>
       <c r="B454" s="3">
         <v>8.09E-2</v>
       </c>
-      <c r="C454" s="4">
-        <v>100.5</v>
-      </c>
-      <c r="D454" s="6">
+      <c r="C454" s="6">
         <v>102</v>
       </c>
     </row>
-    <row r="455" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A455" s="8" t="s">
         <v>0</v>
       </c>
@@ -7937,25 +6570,19 @@
       <c r="C455" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D455" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A456" s="8" t="s">
         <v>230</v>
       </c>
       <c r="B456" s="3">
         <v>8.09E-2</v>
       </c>
-      <c r="C456" s="4">
-        <v>100.5</v>
-      </c>
-      <c r="D456" s="6">
+      <c r="C456" s="6">
         <v>101</v>
       </c>
     </row>
-    <row r="457" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A457" s="8" t="s">
         <v>0</v>
       </c>
@@ -7965,25 +6592,19 @@
       <c r="C457" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D457" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A458" s="8" t="s">
         <v>231</v>
       </c>
       <c r="B458" s="3">
         <v>6.2700000000000006E-2</v>
       </c>
-      <c r="C458" s="6">
-        <v>98</v>
-      </c>
-      <c r="D458" s="4">
+      <c r="C458" s="4">
         <v>99.7</v>
       </c>
     </row>
-    <row r="459" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A459" s="8" t="s">
         <v>0</v>
       </c>
@@ -7993,11 +6614,8 @@
       <c r="C459" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D459" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A460" s="8" t="s">
         <v>232</v>
       </c>
@@ -8005,13 +6623,10 @@
         <v>4.82E-2</v>
       </c>
       <c r="C460" s="4">
-        <v>98.2</v>
-      </c>
-      <c r="D460" s="4">
         <v>100.4</v>
       </c>
     </row>
-    <row r="461" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A461" s="8" t="s">
         <v>0</v>
       </c>
@@ -8021,11 +6636,8 @@
       <c r="C461" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D461" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A462" s="8" t="s">
         <v>233</v>
       </c>
@@ -8033,13 +6645,10 @@
         <v>2.7199999999999998E-2</v>
       </c>
       <c r="C462" s="4">
-        <v>100.3</v>
-      </c>
-      <c r="D462" s="4">
         <v>101.1</v>
       </c>
     </row>
-    <row r="463" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A463" s="8" t="s">
         <v>0</v>
       </c>
@@ -8049,11 +6658,8 @@
       <c r="C463" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D463" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A464" s="8" t="s">
         <v>234</v>
       </c>
@@ -8061,13 +6667,10 @@
         <v>4.7000000000000002E-3</v>
       </c>
       <c r="C464" s="4">
-        <v>100.7</v>
-      </c>
-      <c r="D464" s="4">
         <v>100.5</v>
       </c>
     </row>
-    <row r="465" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A465" s="8" t="s">
         <v>0</v>
       </c>
@@ -8077,25 +6680,19 @@
       <c r="C465" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D465" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A466" s="8" t="s">
         <v>235</v>
       </c>
       <c r="B466" s="3">
         <v>-1.04E-2</v>
       </c>
-      <c r="C466" s="4">
-        <v>100.9</v>
-      </c>
-      <c r="D466" s="6">
+      <c r="C466" s="6">
         <v>101</v>
       </c>
     </row>
-    <row r="467" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A467" s="8" t="s">
         <v>0</v>
       </c>
@@ -8105,25 +6702,19 @@
       <c r="C467" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D467" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A468" s="8" t="s">
         <v>236</v>
       </c>
       <c r="B468" s="3">
         <v>-1.3899999999999999E-2</v>
       </c>
-      <c r="C468" s="6">
-        <v>101</v>
-      </c>
-      <c r="D468" s="4">
+      <c r="C468" s="4">
         <v>101.1</v>
       </c>
     </row>
-    <row r="469" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A469" s="8" t="s">
         <v>0</v>
       </c>
@@ -8133,11 +6724,8 @@
       <c r="C469" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D469" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A470" s="8" t="s">
         <v>237</v>
       </c>
@@ -8145,13 +6733,10 @@
         <v>-1.8700000000000001E-2</v>
       </c>
       <c r="C470" s="4">
-        <v>99.1</v>
-      </c>
-      <c r="D470" s="4">
         <v>99.7</v>
       </c>
     </row>
-    <row r="471" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A471" s="8" t="s">
         <v>0</v>
       </c>
@@ -8161,11 +6746,8 @@
       <c r="C471" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D471" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A472" s="8" t="s">
         <v>238</v>
       </c>
@@ -8173,13 +6755,10 @@
         <v>-2.7699999999999999E-2</v>
       </c>
       <c r="C472" s="4">
-        <v>98.9</v>
-      </c>
-      <c r="D472" s="4">
         <v>99.1</v>
       </c>
     </row>
-    <row r="473" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A473" s="8" t="s">
         <v>0</v>
       </c>
@@ -8189,11 +6768,8 @@
       <c r="C473" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D473" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A474" s="8" t="s">
         <v>239</v>
       </c>
@@ -8201,13 +6777,10 @@
         <v>-3.6999999999999998E-2</v>
       </c>
       <c r="C474" s="4">
-        <v>100.6</v>
-      </c>
-      <c r="D474" s="4">
         <v>98.8</v>
       </c>
     </row>
-    <row r="475" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A475" s="8" t="s">
         <v>0</v>
       </c>
@@ -8217,25 +6790,19 @@
       <c r="C475" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D475" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A476" s="8" t="s">
         <v>240</v>
       </c>
       <c r="B476" s="3">
         <v>-5.3600000000000002E-2</v>
       </c>
-      <c r="C476" s="6">
-        <v>101</v>
-      </c>
-      <c r="D476" s="4">
+      <c r="C476" s="4">
         <v>99.6</v>
       </c>
     </row>
-    <row r="477" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A477" s="8" t="s">
         <v>0</v>
       </c>
@@ -8245,11 +6812,8 @@
       <c r="C477" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D477" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A478" s="8" t="s">
         <v>241</v>
       </c>
@@ -8257,13 +6821,10 @@
         <v>-8.7599999999999997E-2</v>
       </c>
       <c r="C478" s="4">
-        <v>100.6</v>
-      </c>
-      <c r="D478" s="4">
         <v>99.7</v>
       </c>
     </row>
-    <row r="479" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A479" s="8" t="s">
         <v>0</v>
       </c>
@@ -8273,11 +6834,8 @@
       <c r="C479" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D479" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A480" s="8" t="s">
         <v>242</v>
       </c>
@@ -8285,13 +6843,10 @@
         <v>-0.1263</v>
       </c>
       <c r="C480" s="4">
-        <v>100.6</v>
-      </c>
-      <c r="D480" s="4">
         <v>99.1</v>
       </c>
     </row>
-    <row r="481" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A481" s="8" t="s">
         <v>0</v>
       </c>
@@ -8301,11 +6856,8 @@
       <c r="C481" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D481" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A482" s="8" t="s">
         <v>243</v>
       </c>
@@ -8313,13 +6865,10 @@
         <v>-0.14610000000000001</v>
       </c>
       <c r="C482" s="4">
-        <v>98.4</v>
-      </c>
-      <c r="D482" s="4">
         <v>97.9</v>
       </c>
     </row>
-    <row r="483" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A483" s="8" t="s">
         <v>0</v>
       </c>
@@ -8329,25 +6878,19 @@
       <c r="C483" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D483" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A484" s="8" t="s">
         <v>244</v>
       </c>
       <c r="B484" s="3">
         <v>-0.18360000000000001</v>
       </c>
-      <c r="C484" s="6">
-        <v>98</v>
-      </c>
-      <c r="D484" s="4">
+      <c r="C484" s="4">
         <v>97.2</v>
       </c>
     </row>
-    <row r="485" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A485" s="8" t="s">
         <v>0</v>
       </c>
@@ -8357,11 +6900,8 @@
       <c r="C485" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D485" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A486" s="8" t="s">
         <v>245</v>
       </c>
@@ -8369,13 +6909,10 @@
         <v>-0.22850000000000001</v>
       </c>
       <c r="C486" s="4">
-        <v>100.1</v>
-      </c>
-      <c r="D486" s="4">
         <v>97.1</v>
       </c>
     </row>
-    <row r="487" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A487" s="8" t="s">
         <v>0</v>
       </c>
@@ -8385,11 +6922,8 @@
       <c r="C487" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D487" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A488" s="8" t="s">
         <v>246</v>
       </c>
@@ -8397,13 +6931,10 @@
         <v>-0.2492</v>
       </c>
       <c r="C488" s="4">
-        <v>100.3</v>
-      </c>
-      <c r="D488" s="4">
         <v>96.1</v>
       </c>
     </row>
-    <row r="489" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A489" s="8" t="s">
         <v>0</v>
       </c>
@@ -8413,11 +6944,8 @@
       <c r="C489" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D489" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A490" s="8" t="s">
         <v>247</v>
       </c>
@@ -8425,13 +6953,10 @@
         <v>-0.25719999999999998</v>
       </c>
       <c r="C490" s="4">
-        <v>100.6</v>
-      </c>
-      <c r="D490" s="4">
         <v>96.8</v>
       </c>
     </row>
-    <row r="491" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A491" s="8" t="s">
         <v>0</v>
       </c>
@@ -8441,11 +6966,8 @@
       <c r="C491" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D491" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A492" s="8" t="s">
         <v>248</v>
       </c>
@@ -8453,13 +6975,10 @@
         <v>-0.26790000000000003</v>
       </c>
       <c r="C492" s="4">
-        <v>100.8</v>
-      </c>
-      <c r="D492" s="4">
         <v>97.5</v>
       </c>
     </row>
-    <row r="493" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A493" s="8" t="s">
         <v>0</v>
       </c>
@@ -8469,11 +6988,8 @@
       <c r="C493" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D493" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A494" s="8" t="s">
         <v>249</v>
       </c>
@@ -8481,13 +6997,10 @@
         <v>-0.29449999999999998</v>
       </c>
       <c r="C494" s="4">
-        <v>98.9</v>
-      </c>
-      <c r="D494" s="4">
         <v>96.8</v>
       </c>
     </row>
-    <row r="495" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A495" s="8" t="s">
         <v>0</v>
       </c>
@@ -8497,11 +7010,8 @@
       <c r="C495" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D495" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A496" s="8" t="s">
         <v>250</v>
       </c>
@@ -8509,13 +7019,10 @@
         <v>-0.29820000000000002</v>
       </c>
       <c r="C496" s="4">
-        <v>98.8</v>
-      </c>
-      <c r="D496" s="4">
         <v>96.7</v>
       </c>
     </row>
-    <row r="497" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A497" s="8" t="s">
         <v>0</v>
       </c>
@@ -8525,11 +7032,8 @@
       <c r="C497" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D497" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A498" s="8" t="s">
         <v>251</v>
       </c>
@@ -8537,13 +7041,10 @@
         <v>-0.30159999999999998</v>
       </c>
       <c r="C498" s="4">
-        <v>100.7</v>
-      </c>
-      <c r="D498" s="4">
         <v>97.4</v>
       </c>
     </row>
-    <row r="499" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A499" s="8" t="s">
         <v>0</v>
       </c>
@@ -8553,11 +7054,8 @@
       <c r="C499" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D499" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A500" s="8" t="s">
         <v>252</v>
       </c>
@@ -8565,13 +7063,10 @@
         <v>-0.309</v>
       </c>
       <c r="C500" s="4">
-        <v>100.9</v>
-      </c>
-      <c r="D500" s="4">
         <v>97.7</v>
       </c>
     </row>
-    <row r="501" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A501" s="8" t="s">
         <v>0</v>
       </c>
@@ -8581,11 +7076,8 @@
       <c r="C501" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D501" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A502" s="8" t="s">
         <v>253</v>
       </c>
@@ -8593,13 +7085,10 @@
         <v>-0.31269999999999998</v>
       </c>
       <c r="C502" s="4">
-        <v>100.7</v>
-      </c>
-      <c r="D502" s="4">
         <v>98.4</v>
       </c>
     </row>
-    <row r="503" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A503" s="8" t="s">
         <v>0</v>
       </c>
@@ -8609,25 +7098,19 @@
       <c r="C503" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D503" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A504" s="8" t="s">
         <v>254</v>
       </c>
       <c r="B504" s="3">
         <v>-0.31580000000000003</v>
       </c>
-      <c r="C504" s="4">
-        <v>101.1</v>
-      </c>
-      <c r="D504" s="6">
+      <c r="C504" s="6">
         <v>99</v>
       </c>
     </row>
-    <row r="505" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A505" s="8" t="s">
         <v>0</v>
       </c>
@@ -8637,11 +7120,8 @@
       <c r="C505" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D505" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A506" s="8" t="s">
         <v>255</v>
       </c>
@@ -8649,13 +7129,10 @@
         <v>-0.32550000000000001</v>
       </c>
       <c r="C506" s="4">
-        <v>99.4</v>
-      </c>
-      <c r="D506" s="4">
         <v>101.8</v>
       </c>
     </row>
-    <row r="507" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A507" s="8" t="s">
         <v>0</v>
       </c>
@@ -8663,13 +7140,10 @@
         <v>0</v>
       </c>
       <c r="C507" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D507" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A508" s="8" t="s">
         <v>256</v>
       </c>
@@ -8677,13 +7151,10 @@
         <v>-0.3286</v>
       </c>
       <c r="C508" s="4">
-        <v>99.6</v>
-      </c>
-      <c r="D508" s="4">
         <v>103.7</v>
       </c>
     </row>
-    <row r="509" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A509" s="8" t="s">
         <v>0</v>
       </c>
@@ -8693,11 +7164,8 @@
       <c r="C509" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D509" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A510" s="8" t="s">
         <v>257</v>
       </c>
@@ -8705,13 +7173,10 @@
         <v>-0.32929999999999998</v>
       </c>
       <c r="C510" s="4">
-        <v>101.5</v>
-      </c>
-      <c r="D510" s="4">
         <v>102.5</v>
       </c>
     </row>
-    <row r="511" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A511" s="8" t="s">
         <v>0</v>
       </c>
@@ -8721,11 +7186,8 @@
       <c r="C511" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D511" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A512" s="8" t="s">
         <v>258</v>
       </c>
@@ -8733,13 +7195,10 @@
         <v>-0.33040000000000003</v>
       </c>
       <c r="C512" s="4">
-        <v>102.3</v>
-      </c>
-      <c r="D512" s="4">
         <v>101.9</v>
       </c>
     </row>
-    <row r="513" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A513" s="8" t="s">
         <v>0</v>
       </c>
@@ -8749,11 +7208,8 @@
       <c r="C513" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D513" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A514" s="8" t="s">
         <v>259</v>
       </c>
@@ -8761,13 +7217,10 @@
         <v>-0.32950000000000002</v>
       </c>
       <c r="C514" s="4">
-        <v>102.2</v>
-      </c>
-      <c r="D514" s="4">
         <v>101.9</v>
       </c>
     </row>
-    <row r="515" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A515" s="8" t="s">
         <v>0</v>
       </c>
@@ -8777,25 +7230,19 @@
       <c r="C515" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D515" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A516" s="8" t="s">
         <v>260</v>
       </c>
       <c r="B516" s="3">
         <v>-0.33</v>
       </c>
-      <c r="C516" s="6">
-        <v>102</v>
-      </c>
-      <c r="D516" s="4">
+      <c r="C516" s="4">
         <v>100.4</v>
       </c>
     </row>
-    <row r="517" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A517" s="8" t="s">
         <v>0</v>
       </c>
@@ -8805,11 +7252,8 @@
       <c r="C517" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D517" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A518" s="8" t="s">
         <v>261</v>
       </c>
@@ -8817,13 +7261,10 @@
         <v>-0.33040000000000003</v>
       </c>
       <c r="C518" s="4">
-        <v>100.1</v>
-      </c>
-      <c r="D518" s="4">
         <v>98.9</v>
       </c>
     </row>
-    <row r="519" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A519" s="8" t="s">
         <v>0</v>
       </c>
@@ -8833,11 +7274,8 @@
       <c r="C519" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D519" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A520" s="8" t="s">
         <v>262</v>
       </c>
@@ -8845,13 +7283,10 @@
         <v>-0.3291</v>
       </c>
       <c r="C520" s="4">
-        <v>100.2</v>
-      </c>
-      <c r="D520" s="4">
         <v>99.2</v>
       </c>
     </row>
-    <row r="521" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A521" s="8" t="s">
         <v>0</v>
       </c>
@@ -8861,25 +7296,19 @@
       <c r="C521" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D521" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="522" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A522" s="8" t="s">
         <v>263</v>
       </c>
       <c r="B522" s="3">
         <v>-0.32940000000000003</v>
       </c>
-      <c r="C522" s="6">
-        <v>102</v>
-      </c>
-      <c r="D522" s="4">
+      <c r="C522" s="4">
         <v>100.1</v>
       </c>
     </row>
-    <row r="523" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A523" s="8" t="s">
         <v>0</v>
       </c>
@@ -8889,25 +7318,19 @@
       <c r="C523" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D523" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A524" s="8" t="s">
         <v>264</v>
       </c>
       <c r="B524" s="3">
         <v>-0.32950000000000002</v>
       </c>
-      <c r="C524" s="6">
-        <v>102</v>
-      </c>
-      <c r="D524" s="4">
+      <c r="C524" s="4">
         <v>101.6</v>
       </c>
     </row>
-    <row r="525" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A525" s="8" t="s">
         <v>0</v>
       </c>
@@ -8917,11 +7340,8 @@
       <c r="C525" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D525" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A526" s="8" t="s">
         <v>265</v>
       </c>
@@ -8929,13 +7349,10 @@
         <v>-0.32900000000000001</v>
       </c>
       <c r="C526" s="4">
-        <v>101.8</v>
-      </c>
-      <c r="D526" s="4">
         <v>102.3</v>
       </c>
     </row>
-    <row r="527" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A527" s="8" t="s">
         <v>0</v>
       </c>
@@ -8945,11 +7362,8 @@
       <c r="C527" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D527" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A528" s="8" t="s">
         <v>266</v>
       </c>
@@ -8957,13 +7371,10 @@
         <v>-0.32790000000000002</v>
       </c>
       <c r="C528" s="4">
-        <v>102.1</v>
-      </c>
-      <c r="D528" s="4">
         <v>102.6</v>
       </c>
     </row>
-    <row r="529" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A529" s="8" t="s">
         <v>0</v>
       </c>
@@ -8973,11 +7384,8 @@
       <c r="C529" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D529" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A530" s="8" t="s">
         <v>267</v>
       </c>
@@ -8985,13 +7393,10 @@
         <v>-0.32850000000000001</v>
       </c>
       <c r="C530" s="4">
-        <v>100.6</v>
-      </c>
-      <c r="D530" s="4">
         <v>104.6</v>
       </c>
     </row>
-    <row r="531" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A531" s="8" t="s">
         <v>0</v>
       </c>
@@ -9001,11 +7406,8 @@
       <c r="C531" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D531" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A532" s="8" t="s">
         <v>268</v>
       </c>
@@ -9013,13 +7415,10 @@
         <v>-0.32850000000000001</v>
       </c>
       <c r="C532" s="4">
-        <v>100.1</v>
-      </c>
-      <c r="D532" s="4">
         <v>104.2</v>
       </c>
     </row>
-    <row r="533" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A533" s="8" t="s">
         <v>0</v>
       </c>
@@ -9029,11 +7428,8 @@
       <c r="C533" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D533" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A534" s="8" t="s">
         <v>269</v>
       </c>
@@ -9041,13 +7437,10 @@
         <v>-0.32790000000000002</v>
       </c>
       <c r="C534" s="4">
-        <v>102.4</v>
-      </c>
-      <c r="D534" s="4">
         <v>104.1</v>
       </c>
     </row>
-    <row r="535" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A535" s="8" t="s">
         <v>0</v>
       </c>
@@ -9057,11 +7450,8 @@
       <c r="C535" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D535" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="536" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A536" s="8" t="s">
         <v>270</v>
       </c>
@@ -9069,13 +7459,10 @@
         <v>-0.32850000000000001</v>
       </c>
       <c r="C536" s="4">
-        <v>102.9</v>
-      </c>
-      <c r="D536" s="4">
         <v>102.7</v>
       </c>
     </row>
-    <row r="537" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A537" s="8" t="s">
         <v>0</v>
       </c>
@@ -9085,11 +7472,8 @@
       <c r="C537" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D537" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A538" s="8" t="s">
         <v>271</v>
       </c>
@@ -9097,13 +7481,10 @@
         <v>-0.32519999999999999</v>
       </c>
       <c r="C538" s="4">
-        <v>103.2</v>
-      </c>
-      <c r="D538" s="4">
         <v>104.2</v>
       </c>
     </row>
-    <row r="539" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A539" s="8" t="s">
         <v>0</v>
       </c>
@@ -9113,11 +7494,8 @@
       <c r="C539" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D539" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="540" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A540" s="8" t="s">
         <v>272</v>
       </c>
@@ -9125,13 +7503,10 @@
         <v>-0.32200000000000001</v>
       </c>
       <c r="C540" s="4">
-        <v>103.4</v>
-      </c>
-      <c r="D540" s="4">
         <v>104.5</v>
       </c>
     </row>
-    <row r="541" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A541" s="8" t="s">
         <v>0</v>
       </c>
@@ -9141,25 +7516,19 @@
       <c r="C541" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D541" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="542" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A542" s="8" t="s">
         <v>273</v>
       </c>
       <c r="B542" s="3">
         <v>-0.32069999999999999</v>
       </c>
-      <c r="C542" s="6">
-        <v>102</v>
-      </c>
-      <c r="D542" s="4">
+      <c r="C542" s="4">
         <v>105.2</v>
       </c>
     </row>
-    <row r="543" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A543" s="8" t="s">
         <v>0</v>
       </c>
@@ -9169,11 +7538,8 @@
       <c r="C543" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D543" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="544" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A544" s="8" t="s">
         <v>274</v>
       </c>
@@ -9181,13 +7547,10 @@
         <v>-0.31900000000000001</v>
       </c>
       <c r="C544" s="4">
-        <v>101.8</v>
-      </c>
-      <c r="D544" s="4">
         <v>105.1</v>
       </c>
     </row>
-    <row r="545" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A545" s="8" t="s">
         <v>0</v>
       </c>
@@ -9197,11 +7560,8 @@
       <c r="C545" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D545" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A546" s="8" t="s">
         <v>275</v>
       </c>
@@ -9209,13 +7569,10 @@
         <v>-0.31879999999999997</v>
       </c>
       <c r="C546" s="4">
-        <v>103.5</v>
-      </c>
-      <c r="D546" s="4">
         <v>105.6</v>
       </c>
     </row>
-    <row r="547" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A547" s="8" t="s">
         <v>0</v>
       </c>
@@ -9225,11 +7582,8 @@
       <c r="C547" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D547" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="548" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A548" s="8" t="s">
         <v>276</v>
       </c>
@@ -9237,13 +7591,10 @@
         <v>-0.31769999999999998</v>
       </c>
       <c r="C548" s="4">
-        <v>103.7</v>
-      </c>
-      <c r="D548" s="4">
         <v>107.9</v>
       </c>
     </row>
-    <row r="549" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A549" s="8" t="s">
         <v>0</v>
       </c>
@@ -9253,11 +7604,8 @@
       <c r="C549" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D549" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="550" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A550" s="8" t="s">
         <v>277</v>
       </c>
@@ -9265,13 +7613,10 @@
         <v>-0.31640000000000001</v>
       </c>
       <c r="C550" s="4">
-        <v>103.4</v>
-      </c>
-      <c r="D550" s="4">
         <v>108.3</v>
       </c>
     </row>
-    <row r="551" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A551" s="8" t="s">
         <v>0</v>
       </c>
@@ -9281,11 +7626,8 @@
       <c r="C551" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D551" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A552" s="8" t="s">
         <v>278</v>
       </c>
@@ -9293,13 +7635,10 @@
         <v>-0.31190000000000001</v>
       </c>
       <c r="C552" s="4">
-        <v>103.3</v>
-      </c>
-      <c r="D552" s="4">
         <v>107.1</v>
       </c>
     </row>
-    <row r="553" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A553" s="8" t="s">
         <v>0</v>
       </c>
@@ -9309,11 +7648,8 @@
       <c r="C553" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D553" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A554" s="8" t="s">
         <v>279</v>
       </c>
@@ -9321,13 +7657,10 @@
         <v>-0.308</v>
       </c>
       <c r="C554" s="4">
-        <v>101.5</v>
-      </c>
-      <c r="D554" s="4">
         <v>107.7</v>
       </c>
     </row>
-    <row r="555" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A555" s="8" t="s">
         <v>0</v>
       </c>
@@ -9337,11 +7670,8 @@
       <c r="C555" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D555" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="556" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A556" s="8" t="s">
         <v>280</v>
       </c>
@@ -9349,13 +7679,10 @@
         <v>-0.30840000000000001</v>
       </c>
       <c r="C556" s="4">
-        <v>101.2</v>
-      </c>
-      <c r="D556" s="4">
         <v>108.5</v>
       </c>
     </row>
-    <row r="557" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A557" s="8" t="s">
         <v>0</v>
       </c>
@@ -9365,11 +7692,8 @@
       <c r="C557" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D557" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="558" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A558" s="8" t="s">
         <v>281</v>
       </c>
@@ -9377,13 +7701,10 @@
         <v>-0.30919999999999997</v>
       </c>
       <c r="C558" s="4">
-        <v>103.5</v>
-      </c>
-      <c r="D558" s="4">
         <v>108.3</v>
       </c>
     </row>
-    <row r="559" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A559" s="8" t="s">
         <v>0</v>
       </c>
@@ -9393,25 +7714,19 @@
       <c r="C559" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D559" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="560" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A560" s="8" t="s">
         <v>282</v>
       </c>
       <c r="B560" s="3">
         <v>-0.3105</v>
       </c>
-      <c r="C560" s="6">
-        <v>104</v>
-      </c>
-      <c r="D560" s="4">
+      <c r="C560" s="4">
         <v>106.1</v>
       </c>
     </row>
-    <row r="561" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A561" s="8" t="s">
         <v>0</v>
       </c>
@@ -9421,11 +7736,8 @@
       <c r="C561" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D561" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="562" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A562" s="8" t="s">
         <v>283</v>
       </c>
@@ -9433,13 +7745,10 @@
         <v>-0.31190000000000001</v>
       </c>
       <c r="C562" s="4">
-        <v>104.1</v>
-      </c>
-      <c r="D562" s="4">
         <v>107.3</v>
       </c>
     </row>
-    <row r="563" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A563" s="8" t="s">
         <v>0</v>
       </c>
@@ -9449,11 +7758,8 @@
       <c r="C563" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D563" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="564" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A564" s="8" t="s">
         <v>284</v>
       </c>
@@ -9461,13 +7767,10 @@
         <v>-0.32890000000000003</v>
       </c>
       <c r="C564" s="4">
-        <v>104.2</v>
-      </c>
-      <c r="D564" s="4">
         <v>106.4</v>
       </c>
     </row>
-    <row r="565" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A565" s="8" t="s">
         <v>0</v>
       </c>
@@ -9477,11 +7780,8 @@
       <c r="C565" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D565" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A566" s="8" t="s">
         <v>285</v>
       </c>
@@ -9489,13 +7789,10 @@
         <v>-0.3649</v>
       </c>
       <c r="C566" s="4">
-        <v>102.3</v>
-      </c>
-      <c r="D566" s="4">
         <v>104.8</v>
       </c>
     </row>
-    <row r="567" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A567" s="8" t="s">
         <v>0</v>
       </c>
@@ -9505,11 +7802,8 @@
       <c r="C567" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D567" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="568" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A568" s="8" t="s">
         <v>286</v>
       </c>
@@ -9517,13 +7811,10 @@
         <v>-0.40770000000000001</v>
       </c>
       <c r="C568" s="4">
-        <v>102.3</v>
-      </c>
-      <c r="D568" s="4">
         <v>104.6</v>
       </c>
     </row>
-    <row r="569" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A569" s="8" t="s">
         <v>0</v>
       </c>
@@ -9533,11 +7824,8 @@
       <c r="C569" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D569" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="570" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A570" s="8" t="s">
         <v>287</v>
       </c>
@@ -9545,13 +7833,10 @@
         <v>-0.41760000000000003</v>
       </c>
       <c r="C570" s="4">
-        <v>103.7</v>
-      </c>
-      <c r="D570" s="4">
         <v>104.3</v>
       </c>
     </row>
-    <row r="571" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A571" s="8" t="s">
         <v>0</v>
       </c>
@@ -9561,11 +7846,8 @@
       <c r="C571" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D571" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="572" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A572" s="8" t="s">
         <v>288</v>
       </c>
@@ -9573,13 +7855,10 @@
         <v>-0.41289999999999999</v>
       </c>
       <c r="C572" s="4">
-        <v>103.9</v>
-      </c>
-      <c r="D572" s="4">
         <v>105.4</v>
       </c>
     </row>
-    <row r="573" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A573" s="8" t="s">
         <v>0</v>
       </c>
@@ -9589,11 +7868,8 @@
       <c r="C573" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D573" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="574" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A574" s="8" t="s">
         <v>289</v>
       </c>
@@ -9601,13 +7877,10 @@
         <v>-0.40129999999999999</v>
       </c>
       <c r="C574" s="4">
-        <v>103.6</v>
-      </c>
-      <c r="D574" s="4">
         <v>105.8</v>
       </c>
     </row>
-    <row r="575" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A575" s="8" t="s">
         <v>0</v>
       </c>
@@ -9617,11 +7890,8 @@
       <c r="C575" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D575" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="576" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A576" s="8" t="s">
         <v>290</v>
       </c>
@@ -9629,13 +7899,10 @@
         <v>-0.3947</v>
       </c>
       <c r="C576" s="4">
-        <v>103.8</v>
-      </c>
-      <c r="D576" s="4">
         <v>106.2</v>
       </c>
     </row>
-    <row r="577" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A577" s="8" t="s">
         <v>0</v>
       </c>
@@ -9645,11 +7912,8 @@
       <c r="C577" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D577" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="578" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A578" s="8" t="s">
         <v>291</v>
       </c>
@@ -9657,13 +7921,10 @@
         <v>-0.3911</v>
       </c>
       <c r="C578" s="4">
-        <v>101.9</v>
-      </c>
-      <c r="D578" s="4">
         <v>106.7</v>
       </c>
     </row>
-    <row r="579" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A579" s="8" t="s">
         <v>0</v>
       </c>
@@ -9673,11 +7934,8 @@
       <c r="C579" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D579" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="580" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A580" s="8" t="s">
         <v>292</v>
       </c>
@@ -9685,13 +7943,10 @@
         <v>-0.40889999999999999</v>
       </c>
       <c r="C580" s="4">
-        <v>101.4</v>
-      </c>
-      <c r="D580" s="4">
         <v>106.4</v>
       </c>
     </row>
-    <row r="581" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A581" s="8" t="s">
         <v>0</v>
       </c>
@@ -9701,11 +7956,8 @@
       <c r="C581" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D581" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="582" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A582" s="8" t="s">
         <v>293</v>
       </c>
@@ -9713,13 +7965,10 @@
         <v>-0.41660000000000003</v>
       </c>
       <c r="C582" s="4">
-        <v>103.6</v>
-      </c>
-      <c r="D582" s="4">
         <v>105.2</v>
       </c>
     </row>
-    <row r="583" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A583" s="8" t="s">
         <v>0</v>
       </c>
@@ -9729,25 +7978,19 @@
       <c r="C583" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D583" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="584" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A584" s="8" t="s">
         <v>294</v>
       </c>
       <c r="B584" s="3">
         <v>-0.25409999999999999</v>
       </c>
-      <c r="C584" s="4">
-        <v>104.1</v>
-      </c>
-      <c r="D584" s="6">
+      <c r="C584" s="6">
         <v>102</v>
       </c>
     </row>
-    <row r="585" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A585" s="8" t="s">
         <v>0</v>
       </c>
@@ -9757,11 +8000,8 @@
       <c r="C585" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D585" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="586" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A586" s="8" t="s">
         <v>295</v>
       </c>
@@ -9769,13 +8009,10 @@
         <v>-0.27200000000000002</v>
       </c>
       <c r="C586" s="4">
-        <v>103.8</v>
-      </c>
-      <c r="D586" s="4">
         <v>100.8</v>
       </c>
     </row>
-    <row r="587" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A587" s="8" t="s">
         <v>0</v>
       </c>
@@ -9785,11 +8022,8 @@
       <c r="C587" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D587" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="588" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A588" s="8" t="s">
         <v>296</v>
       </c>
@@ -9797,13 +8031,10 @@
         <v>-0.376</v>
       </c>
       <c r="C588" s="4">
-        <v>103.8</v>
-      </c>
-      <c r="D588" s="4">
         <v>100.6</v>
       </c>
     </row>
-    <row r="589" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A589" s="8" t="s">
         <v>0</v>
       </c>
@@ -9813,11 +8044,8 @@
       <c r="C589" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D589" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="590" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A590" s="8" t="s">
         <v>297</v>
       </c>
@@ -9825,13 +8053,10 @@
         <v>-0.44409999999999999</v>
       </c>
       <c r="C590" s="4">
-        <v>103.1</v>
-      </c>
-      <c r="D590" s="4">
         <v>99.4</v>
       </c>
     </row>
-    <row r="591" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A591" s="8" t="s">
         <v>0</v>
       </c>
@@ -9841,11 +8066,8 @@
       <c r="C591" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D591" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="592" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A592" s="8" t="s">
         <v>298</v>
       </c>
@@ -9853,13 +8075,10 @@
         <v>-0.47970000000000002</v>
       </c>
       <c r="C592" s="4">
-        <v>101.8</v>
-      </c>
-      <c r="D592" s="4">
         <v>99.1</v>
       </c>
     </row>
-    <row r="593" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A593" s="8" t="s">
         <v>0</v>
       </c>
@@ -9869,11 +8088,8 @@
       <c r="C593" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D593" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="594" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A594" s="8" t="s">
         <v>299</v>
       </c>
@@ -9881,13 +8097,10 @@
         <v>-0.4914</v>
       </c>
       <c r="C594" s="4">
-        <v>102.7</v>
-      </c>
-      <c r="D594" s="4">
         <v>99.3</v>
       </c>
     </row>
-    <row r="595" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A595" s="8" t="s">
         <v>0</v>
       </c>
@@ -9897,11 +8110,8 @@
       <c r="C595" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D595" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="596" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A596" s="8" t="s">
         <v>300</v>
       </c>
@@ -9909,13 +8119,10 @@
         <v>-0.5091</v>
       </c>
       <c r="C596" s="4">
-        <v>103.3</v>
-      </c>
-      <c r="D596" s="4">
         <v>101.4</v>
       </c>
     </row>
-    <row r="597" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A597" s="8" t="s">
         <v>0</v>
       </c>
@@ -9925,11 +8132,8 @@
       <c r="C597" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D597" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="598" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="598" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A598" s="8" t="s">
         <v>301</v>
       </c>
@@ -9937,13 +8141,10 @@
         <v>-0.52090000000000003</v>
       </c>
       <c r="C598" s="4">
-        <v>103.3</v>
-      </c>
-      <c r="D598" s="4">
         <v>101.9</v>
       </c>
     </row>
-    <row r="599" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A599" s="8" t="s">
         <v>0</v>
       </c>
@@ -9953,11 +8154,8 @@
       <c r="C599" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D599" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="600" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A600" s="8" t="s">
         <v>302</v>
       </c>
@@ -9965,13 +8163,10 @@
         <v>-0.53810000000000002</v>
       </c>
       <c r="C600" s="4">
-        <v>103.5</v>
-      </c>
-      <c r="D600" s="4">
         <v>102.1</v>
       </c>
     </row>
-    <row r="601" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A601" s="8" t="s">
         <v>0</v>
       </c>
@@ -9981,25 +8176,19 @@
       <c r="C601" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D601" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="602" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A602" s="8" t="s">
         <v>303</v>
       </c>
       <c r="B602" s="3">
         <v>-0.54720000000000002</v>
       </c>
-      <c r="C602" s="4">
-        <v>102.6</v>
-      </c>
-      <c r="D602" s="6">
+      <c r="C602" s="6">
         <v>104</v>
       </c>
     </row>
-    <row r="603" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A603" s="8" t="s">
         <v>0</v>
       </c>
@@ -10009,11 +8198,8 @@
       <c r="C603" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D603" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="604" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="604" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A604" s="8" t="s">
         <v>304</v>
       </c>
@@ -10021,13 +8207,10 @@
         <v>-0.54110000000000003</v>
       </c>
       <c r="C604" s="4">
-        <v>102.4</v>
-      </c>
-      <c r="D604" s="4">
         <v>104.6</v>
       </c>
     </row>
-    <row r="605" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A605" s="8" t="s">
         <v>0</v>
       </c>
@@ -10037,11 +8220,8 @@
       <c r="C605" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D605" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="606" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="606" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A606" s="8" t="s">
         <v>305</v>
       </c>
@@ -10049,13 +8229,10 @@
         <v>-0.53910000000000002</v>
       </c>
       <c r="C606" s="4">
-        <v>104.2</v>
-      </c>
-      <c r="D606" s="4">
         <v>105.6</v>
       </c>
     </row>
-    <row r="607" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A607" s="8" t="s">
         <v>0</v>
       </c>
@@ -10065,11 +8242,8 @@
       <c r="C607" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D607" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="608" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="608" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A608" s="8" t="s">
         <v>306</v>
       </c>
@@ -10077,13 +8251,10 @@
         <v>-0.53820000000000001</v>
       </c>
       <c r="C608" s="4">
-        <v>105.1</v>
-      </c>
-      <c r="D608" s="4">
         <v>107.2</v>
       </c>
     </row>
-    <row r="609" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A609" s="8" t="s">
         <v>0</v>
       </c>
@@ -10093,25 +8264,19 @@
       <c r="C609" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D609" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="610" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="610" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A610" s="8" t="s">
         <v>307</v>
       </c>
       <c r="B610" s="3">
         <v>-0.54010000000000002</v>
       </c>
-      <c r="C610" s="6">
-        <v>105</v>
-      </c>
-      <c r="D610" s="4">
+      <c r="C610" s="4">
         <v>108.2</v>
       </c>
     </row>
-    <row r="611" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A611" s="8" t="s">
         <v>0</v>
       </c>
@@ -10121,11 +8286,8 @@
       <c r="C611" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D611" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="612" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="612" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A612" s="8" t="s">
         <v>308</v>
       </c>
@@ -10133,13 +8295,10 @@
         <v>-0.54290000000000005</v>
       </c>
       <c r="C612" s="4">
-        <v>105.2</v>
-      </c>
-      <c r="D612" s="4">
         <v>107.7</v>
       </c>
     </row>
-    <row r="613" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A613" s="8" t="s">
         <v>0</v>
       </c>
@@ -10149,11 +8308,8 @@
       <c r="C613" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D613" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="614" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="614" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A614" s="8" t="s">
         <v>309</v>
       </c>
@@ -10161,13 +8317,10 @@
         <v>-0.54479999999999995</v>
       </c>
       <c r="C614" s="4">
-        <v>104.1</v>
-      </c>
-      <c r="D614" s="4">
         <v>109.4</v>
       </c>
     </row>
-    <row r="615" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A615" s="8" t="s">
         <v>0</v>
       </c>
@@ -10177,11 +8330,8 @@
       <c r="C615" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D615" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="616" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="616" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A616" s="8" t="s">
         <v>310</v>
       </c>
@@ -10189,13 +8339,10 @@
         <v>-0.54759999999999998</v>
       </c>
       <c r="C616" s="4">
-        <v>104.3</v>
-      </c>
-      <c r="D616" s="4">
         <v>110.3</v>
       </c>
     </row>
-    <row r="617" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A617" s="8" t="s">
         <v>0</v>
       </c>
@@ -10205,11 +8352,8 @@
       <c r="C617" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D617" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="618" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="618" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A618" s="8" t="s">
         <v>311</v>
       </c>
@@ -10217,13 +8361,10 @@
         <v>-0.54500000000000004</v>
       </c>
       <c r="C618" s="4">
-        <v>105.7</v>
-      </c>
-      <c r="D618" s="4">
         <v>110.8</v>
       </c>
     </row>
-    <row r="619" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A619" s="8" t="s">
         <v>0</v>
       </c>
@@ -10233,11 +8374,8 @@
       <c r="C619" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D619" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="620" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="620" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A620" s="8" t="s">
         <v>312</v>
       </c>
@@ -10245,13 +8383,10 @@
         <v>-0.54979999999999996</v>
       </c>
       <c r="C620" s="4">
-        <v>106.6</v>
-      </c>
-      <c r="D620" s="4">
         <v>115.7</v>
       </c>
     </row>
-    <row r="621" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A621" s="8" t="s">
         <v>0</v>
       </c>
@@ -10261,11 +8396,8 @@
       <c r="C621" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D621" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="622" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="622" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A622" s="8" t="s">
         <v>313</v>
       </c>
@@ -10273,13 +8405,10 @@
         <v>-0.56740000000000002</v>
       </c>
       <c r="C622" s="4">
-        <v>107.3</v>
-      </c>
-      <c r="D622" s="4">
         <v>119.6</v>
       </c>
     </row>
-    <row r="623" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A623" s="8" t="s">
         <v>0</v>
       </c>
@@ -10289,11 +8418,8 @@
       <c r="C623" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D623" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="624" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="624" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A624" s="8" t="s">
         <v>314</v>
       </c>
@@ -10301,13 +8427,10 @@
         <v>-0.58199999999999996</v>
       </c>
       <c r="C624" s="4">
-        <v>107.8</v>
-      </c>
-      <c r="D624" s="4">
         <v>120.2</v>
       </c>
     </row>
-    <row r="625" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A625" s="8" t="s">
         <v>0</v>
       </c>
@@ -10317,11 +8440,8 @@
       <c r="C625" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D625" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="626" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="626" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A626" s="8" t="s">
         <v>315</v>
       </c>
@@ -10329,13 +8449,10 @@
         <v>-0.56010000000000004</v>
       </c>
       <c r="C626" s="4">
-        <v>107.8</v>
-      </c>
-      <c r="D626" s="4">
         <v>128.9</v>
       </c>
     </row>
-    <row r="627" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A627" s="8" t="s">
         <v>0</v>
       </c>
@@ -10345,11 +8462,8 @@
       <c r="C627" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D627" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="628" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="628" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A628" s="8" t="s">
         <v>316</v>
       </c>
@@ -10357,13 +8471,10 @@
         <v>-0.53149999999999997</v>
       </c>
       <c r="C628" s="4">
-        <v>108.7</v>
-      </c>
-      <c r="D628" s="4">
         <v>134.69999999999999</v>
       </c>
     </row>
-    <row r="629" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A629" s="8" t="s">
         <v>0</v>
       </c>
@@ -10373,11 +8484,8 @@
       <c r="C629" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D629" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="630" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="630" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A630" s="8" t="s">
         <v>317</v>
       </c>
@@ -10385,13 +8493,10 @@
         <v>-0.49540000000000001</v>
       </c>
       <c r="C630" s="4">
-        <v>111.3</v>
-      </c>
-      <c r="D630" s="4">
         <v>139.6</v>
       </c>
     </row>
-    <row r="631" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A631" s="8" t="s">
         <v>0</v>
       </c>
@@ -10401,25 +8506,19 @@
       <c r="C631" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D631" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="632" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="632" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A632" s="8" t="s">
         <v>318</v>
       </c>
       <c r="B632" s="3">
         <v>-0.44790000000000002</v>
       </c>
-      <c r="C632" s="4">
-        <v>111.7</v>
-      </c>
-      <c r="D632" s="6">
+      <c r="C632" s="6">
         <v>135</v>
       </c>
     </row>
-    <row r="633" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A633" s="8" t="s">
         <v>0</v>
       </c>
@@ -10429,11 +8528,8 @@
       <c r="C633" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D633" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="634" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="634" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A634" s="8" t="s">
         <v>319</v>
       </c>
@@ -10441,13 +8537,10 @@
         <v>-0.38569999999999999</v>
       </c>
       <c r="C634" s="4">
-        <v>112.7</v>
-      </c>
-      <c r="D634" s="4">
         <v>137.80000000000001</v>
       </c>
     </row>
-    <row r="635" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A635" s="8" t="s">
         <v>0</v>
       </c>
@@ -10457,11 +8550,8 @@
       <c r="C635" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D635" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="636" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="636" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A636" s="8" t="s">
         <v>320</v>
       </c>
@@ -10469,13 +8559,10 @@
         <v>-0.2392</v>
       </c>
       <c r="C636" s="4">
-        <v>114.1</v>
-      </c>
-      <c r="D636" s="4">
         <v>141.9</v>
       </c>
     </row>
-    <row r="637" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A637" s="8" t="s">
         <v>0</v>
       </c>
@@ -10485,11 +8572,8 @@
       <c r="C637" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D637" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="638" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="638" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A638" s="8" t="s">
         <v>321</v>
       </c>
@@ -10497,13 +8581,10 @@
         <v>3.6600000000000001E-2</v>
       </c>
       <c r="C638" s="4">
-        <v>112.8</v>
-      </c>
-      <c r="D638" s="4">
         <v>140.80000000000001</v>
       </c>
     </row>
-    <row r="639" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A639" s="8" t="s">
         <v>0</v>
       </c>
@@ -10513,11 +8594,8 @@
       <c r="C639" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D639" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="640" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="640" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A640" s="8" t="s">
         <v>322</v>
       </c>
@@ -10525,13 +8603,10 @@
         <v>0.3947</v>
       </c>
       <c r="C640" s="4">
-        <v>113.8</v>
-      </c>
-      <c r="D640" s="4">
         <v>143.30000000000001</v>
       </c>
     </row>
-    <row r="641" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A641" s="8" t="s">
         <v>0</v>
       </c>
@@ -10541,11 +8616,8 @@
       <c r="C641" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D641" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="642" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="642" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A642" s="8" t="s">
         <v>323</v>
       </c>
@@ -10553,13 +8625,10 @@
         <v>1.0108999999999999</v>
       </c>
       <c r="C642" s="4">
-        <v>115.6</v>
-      </c>
-      <c r="D642" s="4">
         <v>144.19999999999999</v>
       </c>
     </row>
-    <row r="643" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A643" s="8" t="s">
         <v>0</v>
       </c>
@@ -10569,25 +8638,19 @@
       <c r="C643" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D643" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="644" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="644" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A644" s="8" t="s">
         <v>324</v>
       </c>
       <c r="B644" s="3">
         <v>1.4277</v>
       </c>
-      <c r="C644" s="6">
-        <v>120</v>
-      </c>
-      <c r="D644" s="4">
+      <c r="C644" s="4">
         <v>169.7</v>
       </c>
     </row>
-    <row r="645" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A645" s="8" t="s">
         <v>0</v>
       </c>
@@ -10597,11 +8660,8 @@
       <c r="C645" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D645" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="646" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="646" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A646" s="8" t="s">
         <v>325</v>
       </c>
@@ -10609,13 +8669,10 @@
         <v>1.8251999999999999</v>
       </c>
       <c r="C646" s="4">
-        <v>120.8</v>
-      </c>
-      <c r="D646" s="4">
         <v>172.4</v>
       </c>
     </row>
-    <row r="647" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A647" s="8" t="s">
         <v>0</v>
       </c>
@@ -10625,11 +8682,8 @@
       <c r="C647" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D647" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="648" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="648" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A648" s="8" t="s">
         <v>326</v>
       </c>
@@ -10637,13 +8691,10 @@
         <v>2.0634999999999999</v>
       </c>
       <c r="C648" s="4">
-        <v>121.1</v>
-      </c>
-      <c r="D648" s="4">
         <v>169.9</v>
       </c>
     </row>
-    <row r="649" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A649" s="8" t="s">
         <v>0</v>
       </c>
@@ -10653,11 +8704,8 @@
       <c r="C649" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D649" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="650" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="650" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A650" s="8" t="s">
         <v>327</v>
       </c>
@@ -10665,13 +8713,10 @@
         <v>2.3449</v>
       </c>
       <c r="C650" s="4">
-        <v>119.3</v>
-      </c>
-      <c r="D650" s="4">
         <v>165.7</v>
       </c>
     </row>
-    <row r="651" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A651" s="8" t="s">
         <v>0</v>
       </c>
@@ -10681,11 +8726,8 @@
       <c r="C651" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D651" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="652" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="652" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A652" s="8" t="s">
         <v>328</v>
       </c>
@@ -10693,13 +8735,10 @@
         <v>2.6402999999999999</v>
       </c>
       <c r="C652" s="4">
-        <v>119.4</v>
-      </c>
-      <c r="D652" s="4">
         <v>163.1</v>
       </c>
     </row>
-    <row r="653" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A653" s="8" t="s">
         <v>0</v>
       </c>
@@ -10709,25 +8748,19 @@
       <c r="C653" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D653" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="654" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="654" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A654" s="8" t="s">
         <v>329</v>
       </c>
       <c r="B654" s="3">
         <v>2.9106000000000001</v>
       </c>
-      <c r="C654" s="4">
-        <v>120.3</v>
-      </c>
-      <c r="D654" s="6">
+      <c r="C654" s="6">
         <v>155</v>
       </c>
     </row>
-    <row r="655" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A655" s="8" t="s">
         <v>0</v>
       </c>
@@ -10737,11 +8770,8 @@
       <c r="C655" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D655" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="656" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="656" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A656" s="8" t="s">
         <v>330</v>
       </c>
@@ -10749,13 +8779,10 @@
         <v>3.1669999999999998</v>
       </c>
       <c r="C656" s="4">
-        <v>121.3</v>
-      </c>
-      <c r="D656" s="4">
         <v>154.1</v>
       </c>
     </row>
-    <row r="657" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A657" s="8" t="s">
         <v>0</v>
       </c>
@@ -10765,11 +8792,8 @@
       <c r="C657" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D657" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="658" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="658" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A658" s="8" t="s">
         <v>331</v>
       </c>
@@ -10777,13 +8801,10 @@
         <v>3.3664000000000001</v>
       </c>
       <c r="C658" s="4">
-        <v>121.7</v>
-      </c>
-      <c r="D658" s="4">
         <v>154.1</v>
       </c>
     </row>
-    <row r="659" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A659" s="8" t="s">
         <v>0</v>
       </c>
@@ -10793,25 +8814,19 @@
       <c r="C659" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D659" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="660" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="660" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A660" s="8" t="s">
         <v>332</v>
       </c>
       <c r="B660" s="3">
         <v>3.5358999999999998</v>
       </c>
-      <c r="C660" s="4">
-        <v>121.8</v>
-      </c>
-      <c r="D660" s="6">
+      <c r="C660" s="6">
         <v>151</v>
       </c>
     </row>
-    <row r="661" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A661" s="8" t="s">
         <v>0</v>
       </c>
@@ -10821,11 +8836,8 @@
       <c r="C661" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D661" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="662" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="662" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A662" s="8" t="s">
         <v>333</v>
       </c>
@@ -10833,13 +8845,10 @@
         <v>3.6718000000000002</v>
       </c>
       <c r="C662" s="4">
-        <v>119.9</v>
-      </c>
-      <c r="D662" s="4">
         <v>149.19999999999999</v>
       </c>
     </row>
-    <row r="663" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A663" s="8" t="s">
         <v>0</v>
       </c>
@@ -10849,11 +8858,8 @@
       <c r="C663" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D663" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="664" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="664" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A664" s="8" t="s">
         <v>334</v>
       </c>
@@ -10861,13 +8867,10 @@
         <v>3.7803</v>
       </c>
       <c r="C664" s="4">
-        <v>120.1</v>
-      </c>
-      <c r="D664" s="4">
         <v>150.19999999999999</v>
       </c>
     </row>
-    <row r="665" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A665" s="8" t="s">
         <v>0</v>
       </c>
@@ -10877,11 +8880,8 @@
       <c r="C665" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D665" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="666" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="666" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A666" s="8" t="s">
         <v>335</v>
       </c>
@@ -10889,13 +8889,10 @@
         <v>3.88</v>
       </c>
       <c r="C666" s="4">
-        <v>122.1</v>
-      </c>
-      <c r="D666" s="4">
         <v>152.19999999999999</v>
       </c>
     </row>
-    <row r="667" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A667" s="8" t="s">
         <v>0</v>
       </c>
@@ -10905,25 +8902,19 @@
       <c r="C667" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D667" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="668" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="668" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A668" s="8" t="s">
         <v>336</v>
       </c>
       <c r="B668" s="3">
         <v>3.9676</v>
       </c>
-      <c r="C668" s="4">
-        <v>122.2</v>
-      </c>
-      <c r="D668" s="6">
+      <c r="C668" s="6">
         <v>152</v>
       </c>
     </row>
-    <row r="669" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A669" s="8" t="s">
         <v>0</v>
       </c>
@@ -10933,11 +8924,8 @@
       <c r="C669" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D669" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="670" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="670" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A670" s="8" t="s">
         <v>337</v>
       </c>
@@ -10945,13 +8933,10 @@
         <v>3.9716</v>
       </c>
       <c r="C670" s="4">
-        <v>121.5</v>
-      </c>
-      <c r="D670" s="4">
         <v>149.6</v>
       </c>
     </row>
-    <row r="671" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A671" s="8" t="s">
         <v>0</v>
       </c>
@@ -10961,11 +8946,8 @@
       <c r="C671" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D671" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="672" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="672" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A672" s="8" t="s">
         <v>338</v>
       </c>
@@ -10973,7 +8955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="673" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A673" s="8" t="s">
         <v>0</v>
       </c>
@@ -10982,6 +8964,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
